--- a/holidays2.xlsx
+++ b/holidays2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namtrantuan\Desktop\passenger_forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88ED11B-1BBE-4A75-9599-C551DF45B44C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D2E0C0-6D21-4F13-A0C2-B6BCE6E17D3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C81195CF-3238-4C84-B228-279AE06B6B57}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="covid" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">covid!$A$1:$B$998</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">covid!$A$1:$B$1012</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="11">
   <si>
     <t>covid_1</t>
   </si>
@@ -67,6 +67,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,10 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,18 +427,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9708BE-FF7E-456D-97C7-E4E782A5149C}">
-  <dimension ref="A1:B998"/>
+  <dimension ref="A1:G1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A969" workbookViewId="0">
-      <selection activeCell="C983" sqref="C983"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -442,7 +447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43899</v>
       </c>
@@ -450,7 +455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43900</v>
       </c>
@@ -458,7 +463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43901</v>
       </c>
@@ -466,7 +471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43902</v>
       </c>
@@ -474,7 +479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43903</v>
       </c>
@@ -482,7 +487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43904</v>
       </c>
@@ -490,15 +495,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43905</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43906</v>
       </c>
@@ -506,7 +512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43907</v>
       </c>
@@ -514,7 +520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43908</v>
       </c>
@@ -522,7 +528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43909</v>
       </c>
@@ -530,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43910</v>
       </c>
@@ -538,7 +544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43911</v>
       </c>
@@ -546,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43912</v>
       </c>
@@ -554,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43913</v>
       </c>
@@ -2164,7 +2170,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>44316</v>
+        <v>44321</v>
       </c>
       <c r="B217" t="s">
         <v>3</v>
@@ -2172,7 +2178,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>44317</v>
+        <v>44322</v>
       </c>
       <c r="B218" t="s">
         <v>3</v>
@@ -2180,7 +2186,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>44318</v>
+        <v>44323</v>
       </c>
       <c r="B219" t="s">
         <v>3</v>
@@ -2188,7 +2194,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>44319</v>
+        <v>44324</v>
       </c>
       <c r="B220" t="s">
         <v>3</v>
@@ -2196,7 +2202,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>44320</v>
+        <v>44325</v>
       </c>
       <c r="B221" t="s">
         <v>3</v>
@@ -2204,7 +2210,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>44321</v>
+        <v>44326</v>
       </c>
       <c r="B222" t="s">
         <v>3</v>
@@ -2212,7 +2218,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>44322</v>
+        <v>44327</v>
       </c>
       <c r="B223" t="s">
         <v>3</v>
@@ -2220,7 +2226,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>44323</v>
+        <v>44328</v>
       </c>
       <c r="B224" t="s">
         <v>3</v>
@@ -2228,7 +2234,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>44324</v>
+        <v>44329</v>
       </c>
       <c r="B225" t="s">
         <v>3</v>
@@ -2236,7 +2242,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>44325</v>
+        <v>44330</v>
       </c>
       <c r="B226" t="s">
         <v>3</v>
@@ -2244,7 +2250,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>44326</v>
+        <v>44331</v>
       </c>
       <c r="B227" t="s">
         <v>3</v>
@@ -2252,7 +2258,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>44327</v>
+        <v>44332</v>
       </c>
       <c r="B228" t="s">
         <v>3</v>
@@ -2260,7 +2266,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>44328</v>
+        <v>44333</v>
       </c>
       <c r="B229" t="s">
         <v>3</v>
@@ -2268,7 +2274,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>44329</v>
+        <v>44334</v>
       </c>
       <c r="B230" t="s">
         <v>3</v>
@@ -2276,7 +2282,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>44330</v>
+        <v>44335</v>
       </c>
       <c r="B231" t="s">
         <v>3</v>
@@ -2284,7 +2290,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>44331</v>
+        <v>44336</v>
       </c>
       <c r="B232" t="s">
         <v>3</v>
@@ -2292,7 +2298,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>44332</v>
+        <v>44337</v>
       </c>
       <c r="B233" t="s">
         <v>3</v>
@@ -2300,7 +2306,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>44333</v>
+        <v>44338</v>
       </c>
       <c r="B234" t="s">
         <v>3</v>
@@ -2308,7 +2314,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>44334</v>
+        <v>44339</v>
       </c>
       <c r="B235" t="s">
         <v>3</v>
@@ -2316,7 +2322,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>44335</v>
+        <v>44340</v>
       </c>
       <c r="B236" t="s">
         <v>3</v>
@@ -2324,7 +2330,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>44336</v>
+        <v>44341</v>
       </c>
       <c r="B237" t="s">
         <v>3</v>
@@ -2332,7 +2338,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>44337</v>
+        <v>44342</v>
       </c>
       <c r="B238" t="s">
         <v>3</v>
@@ -2340,7 +2346,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>44338</v>
+        <v>44343</v>
       </c>
       <c r="B239" t="s">
         <v>3</v>
@@ -2348,7 +2354,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>44339</v>
+        <v>44344</v>
       </c>
       <c r="B240" t="s">
         <v>3</v>
@@ -2356,7 +2362,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>44340</v>
+        <v>44345</v>
       </c>
       <c r="B241" t="s">
         <v>3</v>
@@ -2364,7 +2370,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>44341</v>
+        <v>44346</v>
       </c>
       <c r="B242" t="s">
         <v>3</v>
@@ -2372,7 +2378,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>44342</v>
+        <v>44347</v>
       </c>
       <c r="B243" t="s">
         <v>3</v>
@@ -2380,7 +2386,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>44343</v>
+        <v>44348</v>
       </c>
       <c r="B244" t="s">
         <v>3</v>
@@ -2388,7 +2394,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>44344</v>
+        <v>44349</v>
       </c>
       <c r="B245" t="s">
         <v>3</v>
@@ -2396,7 +2402,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>44345</v>
+        <v>44350</v>
       </c>
       <c r="B246" t="s">
         <v>3</v>
@@ -2404,7 +2410,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>44346</v>
+        <v>44351</v>
       </c>
       <c r="B247" t="s">
         <v>3</v>
@@ -2412,7 +2418,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>44347</v>
+        <v>44352</v>
       </c>
       <c r="B248" t="s">
         <v>3</v>
@@ -2420,7 +2426,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>44348</v>
+        <v>44353</v>
       </c>
       <c r="B249" t="s">
         <v>3</v>
@@ -2428,7 +2434,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>44349</v>
+        <v>44354</v>
       </c>
       <c r="B250" t="s">
         <v>3</v>
@@ -2436,7 +2442,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>44350</v>
+        <v>44355</v>
       </c>
       <c r="B251" t="s">
         <v>3</v>
@@ -2444,7 +2450,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="B252" t="s">
         <v>3</v>
@@ -2452,7 +2458,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>44352</v>
+        <v>44357</v>
       </c>
       <c r="B253" t="s">
         <v>3</v>
@@ -2460,7 +2466,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>44353</v>
+        <v>44358</v>
       </c>
       <c r="B254" t="s">
         <v>3</v>
@@ -2468,7 +2474,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>44354</v>
+        <v>44359</v>
       </c>
       <c r="B255" t="s">
         <v>3</v>
@@ -2476,7 +2482,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>44355</v>
+        <v>44360</v>
       </c>
       <c r="B256" t="s">
         <v>3</v>
@@ -2484,7 +2490,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>44356</v>
+        <v>44361</v>
       </c>
       <c r="B257" t="s">
         <v>3</v>
@@ -2492,7 +2498,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>44357</v>
+        <v>44362</v>
       </c>
       <c r="B258" t="s">
         <v>3</v>
@@ -2500,7 +2506,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>44358</v>
+        <v>44363</v>
       </c>
       <c r="B259" t="s">
         <v>3</v>
@@ -2508,7 +2514,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>44359</v>
+        <v>44364</v>
       </c>
       <c r="B260" t="s">
         <v>3</v>
@@ -2516,7 +2522,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>44360</v>
+        <v>44365</v>
       </c>
       <c r="B261" t="s">
         <v>3</v>
@@ -2524,7 +2530,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>44361</v>
+        <v>44366</v>
       </c>
       <c r="B262" t="s">
         <v>3</v>
@@ -2532,7 +2538,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>44362</v>
+        <v>44367</v>
       </c>
       <c r="B263" t="s">
         <v>3</v>
@@ -2540,7 +2546,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>44363</v>
+        <v>44368</v>
       </c>
       <c r="B264" t="s">
         <v>3</v>
@@ -2548,7 +2554,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>44364</v>
+        <v>44369</v>
       </c>
       <c r="B265" t="s">
         <v>3</v>
@@ -2556,7 +2562,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>44365</v>
+        <v>44370</v>
       </c>
       <c r="B266" t="s">
         <v>3</v>
@@ -2564,7 +2570,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>44366</v>
+        <v>44371</v>
       </c>
       <c r="B267" t="s">
         <v>3</v>
@@ -2572,7 +2578,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>44367</v>
+        <v>44372</v>
       </c>
       <c r="B268" t="s">
         <v>3</v>
@@ -2580,7 +2586,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>44368</v>
+        <v>44373</v>
       </c>
       <c r="B269" t="s">
         <v>3</v>
@@ -2588,7 +2594,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>44369</v>
+        <v>44374</v>
       </c>
       <c r="B270" t="s">
         <v>3</v>
@@ -2596,7 +2602,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>44370</v>
+        <v>44375</v>
       </c>
       <c r="B271" t="s">
         <v>3</v>
@@ -2604,7 +2610,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>44371</v>
+        <v>44376</v>
       </c>
       <c r="B272" t="s">
         <v>3</v>
@@ -2612,7 +2618,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>44372</v>
+        <v>44377</v>
       </c>
       <c r="B273" t="s">
         <v>3</v>
@@ -2620,7 +2626,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>44373</v>
+        <v>44378</v>
       </c>
       <c r="B274" t="s">
         <v>3</v>
@@ -2628,7 +2634,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>44374</v>
+        <v>44379</v>
       </c>
       <c r="B275" t="s">
         <v>3</v>
@@ -2636,7 +2642,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>44375</v>
+        <v>44380</v>
       </c>
       <c r="B276" t="s">
         <v>3</v>
@@ -2644,7 +2650,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>44376</v>
+        <v>44381</v>
       </c>
       <c r="B277" t="s">
         <v>3</v>
@@ -2652,7 +2658,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>44377</v>
+        <v>44382</v>
       </c>
       <c r="B278" t="s">
         <v>3</v>
@@ -2660,7 +2666,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>44378</v>
+        <v>44383</v>
       </c>
       <c r="B279" t="s">
         <v>3</v>
@@ -2668,7 +2674,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>44379</v>
+        <v>44384</v>
       </c>
       <c r="B280" t="s">
         <v>3</v>
@@ -2676,7 +2682,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>44380</v>
+        <v>44385</v>
       </c>
       <c r="B281" t="s">
         <v>3</v>
@@ -2684,7 +2690,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>44381</v>
+        <v>44386</v>
       </c>
       <c r="B282" t="s">
         <v>3</v>
@@ -2692,7 +2698,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>44382</v>
+        <v>44387</v>
       </c>
       <c r="B283" t="s">
         <v>3</v>
@@ -2700,7 +2706,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>44383</v>
+        <v>44388</v>
       </c>
       <c r="B284" t="s">
         <v>3</v>
@@ -2708,7 +2714,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>44384</v>
+        <v>44389</v>
       </c>
       <c r="B285" t="s">
         <v>3</v>
@@ -2716,7 +2722,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>44385</v>
+        <v>44390</v>
       </c>
       <c r="B286" t="s">
         <v>3</v>
@@ -2724,7 +2730,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>44386</v>
+        <v>44391</v>
       </c>
       <c r="B287" t="s">
         <v>3</v>
@@ -2732,7 +2738,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>44387</v>
+        <v>44392</v>
       </c>
       <c r="B288" t="s">
         <v>3</v>
@@ -2740,7 +2746,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>44388</v>
+        <v>44393</v>
       </c>
       <c r="B289" t="s">
         <v>3</v>
@@ -2748,7 +2754,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>44389</v>
+        <v>44394</v>
       </c>
       <c r="B290" t="s">
         <v>3</v>
@@ -2756,7 +2762,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>44390</v>
+        <v>44395</v>
       </c>
       <c r="B291" t="s">
         <v>3</v>
@@ -2764,7 +2770,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>44391</v>
+        <v>44396</v>
       </c>
       <c r="B292" t="s">
         <v>3</v>
@@ -2772,7 +2778,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>44392</v>
+        <v>44397</v>
       </c>
       <c r="B293" t="s">
         <v>3</v>
@@ -2780,7 +2786,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>44393</v>
+        <v>44398</v>
       </c>
       <c r="B294" t="s">
         <v>3</v>
@@ -2788,7 +2794,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>44394</v>
+        <v>44399</v>
       </c>
       <c r="B295" t="s">
         <v>3</v>
@@ -2796,7 +2802,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>44395</v>
+        <v>44400</v>
       </c>
       <c r="B296" t="s">
         <v>3</v>
@@ -2804,7 +2810,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>44396</v>
+        <v>44401</v>
       </c>
       <c r="B297" t="s">
         <v>3</v>
@@ -2812,7 +2818,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>44397</v>
+        <v>44402</v>
       </c>
       <c r="B298" t="s">
         <v>3</v>
@@ -2820,7 +2826,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>44398</v>
+        <v>44403</v>
       </c>
       <c r="B299" t="s">
         <v>3</v>
@@ -2828,7 +2834,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>44399</v>
+        <v>44404</v>
       </c>
       <c r="B300" t="s">
         <v>3</v>
@@ -2836,7 +2842,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>44400</v>
+        <v>44405</v>
       </c>
       <c r="B301" t="s">
         <v>3</v>
@@ -2844,7 +2850,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>44401</v>
+        <v>44406</v>
       </c>
       <c r="B302" t="s">
         <v>3</v>
@@ -2852,7 +2858,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>44402</v>
+        <v>44407</v>
       </c>
       <c r="B303" t="s">
         <v>3</v>
@@ -2860,7 +2866,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>44403</v>
+        <v>44408</v>
       </c>
       <c r="B304" t="s">
         <v>3</v>
@@ -2868,7 +2874,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>44404</v>
+        <v>44409</v>
       </c>
       <c r="B305" t="s">
         <v>3</v>
@@ -2876,7 +2882,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>44405</v>
+        <v>44410</v>
       </c>
       <c r="B306" t="s">
         <v>3</v>
@@ -2884,7 +2890,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>44406</v>
+        <v>44411</v>
       </c>
       <c r="B307" t="s">
         <v>3</v>
@@ -2892,7 +2898,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>44407</v>
+        <v>44412</v>
       </c>
       <c r="B308" t="s">
         <v>3</v>
@@ -2900,7 +2906,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>44408</v>
+        <v>44413</v>
       </c>
       <c r="B309" t="s">
         <v>3</v>
@@ -2908,7 +2914,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>44409</v>
+        <v>44414</v>
       </c>
       <c r="B310" t="s">
         <v>3</v>
@@ -2916,7 +2922,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>44410</v>
+        <v>44415</v>
       </c>
       <c r="B311" t="s">
         <v>3</v>
@@ -2924,7 +2930,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>44411</v>
+        <v>44416</v>
       </c>
       <c r="B312" t="s">
         <v>3</v>
@@ -2932,7 +2938,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>44412</v>
+        <v>44417</v>
       </c>
       <c r="B313" t="s">
         <v>3</v>
@@ -2940,7 +2946,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>44413</v>
+        <v>44418</v>
       </c>
       <c r="B314" t="s">
         <v>3</v>
@@ -2948,7 +2954,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>44414</v>
+        <v>44419</v>
       </c>
       <c r="B315" t="s">
         <v>3</v>
@@ -2956,7 +2962,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>44415</v>
+        <v>44420</v>
       </c>
       <c r="B316" t="s">
         <v>3</v>
@@ -2964,7 +2970,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>44416</v>
+        <v>44421</v>
       </c>
       <c r="B317" t="s">
         <v>3</v>
@@ -2972,7 +2978,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>44417</v>
+        <v>44422</v>
       </c>
       <c r="B318" t="s">
         <v>3</v>
@@ -2980,7 +2986,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>44418</v>
+        <v>44423</v>
       </c>
       <c r="B319" t="s">
         <v>3</v>
@@ -2988,7 +2994,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>44419</v>
+        <v>44424</v>
       </c>
       <c r="B320" t="s">
         <v>3</v>
@@ -2996,7 +3002,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>44420</v>
+        <v>44425</v>
       </c>
       <c r="B321" t="s">
         <v>3</v>
@@ -3004,7 +3010,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="B322" t="s">
         <v>3</v>
@@ -3012,7 +3018,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>44422</v>
+        <v>44427</v>
       </c>
       <c r="B323" t="s">
         <v>3</v>
@@ -3020,7 +3026,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>44423</v>
+        <v>44428</v>
       </c>
       <c r="B324" t="s">
         <v>3</v>
@@ -3028,7 +3034,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>44424</v>
+        <v>44429</v>
       </c>
       <c r="B325" t="s">
         <v>3</v>
@@ -3036,7 +3042,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>44425</v>
+        <v>44430</v>
       </c>
       <c r="B326" t="s">
         <v>3</v>
@@ -3044,7 +3050,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>44426</v>
+        <v>44431</v>
       </c>
       <c r="B327" t="s">
         <v>3</v>
@@ -3052,7 +3058,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>44427</v>
+        <v>44432</v>
       </c>
       <c r="B328" t="s">
         <v>3</v>
@@ -3060,7 +3066,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>44428</v>
+        <v>44433</v>
       </c>
       <c r="B329" t="s">
         <v>3</v>
@@ -3068,7 +3074,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>44429</v>
+        <v>44434</v>
       </c>
       <c r="B330" t="s">
         <v>3</v>
@@ -3076,7 +3082,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>44430</v>
+        <v>44435</v>
       </c>
       <c r="B331" t="s">
         <v>3</v>
@@ -3084,7 +3090,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>44431</v>
+        <v>44436</v>
       </c>
       <c r="B332" t="s">
         <v>3</v>
@@ -3092,7 +3098,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="B333" t="s">
         <v>3</v>
@@ -3100,7 +3106,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>44433</v>
+        <v>44438</v>
       </c>
       <c r="B334" t="s">
         <v>3</v>
@@ -3108,7 +3114,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>44434</v>
+        <v>44439</v>
       </c>
       <c r="B335" t="s">
         <v>3</v>
@@ -3116,7 +3122,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>44435</v>
+        <v>44440</v>
       </c>
       <c r="B336" t="s">
         <v>3</v>
@@ -3124,7 +3130,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>44436</v>
+        <v>44441</v>
       </c>
       <c r="B337" t="s">
         <v>3</v>
@@ -3132,7 +3138,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>44437</v>
+        <v>44442</v>
       </c>
       <c r="B338" t="s">
         <v>3</v>
@@ -3140,7 +3146,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>44438</v>
+        <v>44443</v>
       </c>
       <c r="B339" t="s">
         <v>3</v>
@@ -3148,7 +3154,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>44439</v>
+        <v>44444</v>
       </c>
       <c r="B340" t="s">
         <v>3</v>
@@ -3156,7 +3162,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>44440</v>
+        <v>44445</v>
       </c>
       <c r="B341" t="s">
         <v>3</v>
@@ -3164,7 +3170,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>44441</v>
+        <v>44446</v>
       </c>
       <c r="B342" t="s">
         <v>3</v>
@@ -3172,7 +3178,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>44442</v>
+        <v>44447</v>
       </c>
       <c r="B343" t="s">
         <v>3</v>
@@ -3180,7 +3186,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>44443</v>
+        <v>44448</v>
       </c>
       <c r="B344" t="s">
         <v>3</v>
@@ -3188,7 +3194,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>44444</v>
+        <v>44449</v>
       </c>
       <c r="B345" t="s">
         <v>3</v>
@@ -3196,7 +3202,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>44445</v>
+        <v>44450</v>
       </c>
       <c r="B346" t="s">
         <v>3</v>
@@ -3204,7 +3210,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>44446</v>
+        <v>44451</v>
       </c>
       <c r="B347" t="s">
         <v>3</v>
@@ -3212,7 +3218,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="B348" t="s">
         <v>3</v>
@@ -3220,7 +3226,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>44448</v>
+        <v>44453</v>
       </c>
       <c r="B349" t="s">
         <v>3</v>
@@ -3228,7 +3234,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>44449</v>
+        <v>44454</v>
       </c>
       <c r="B350" t="s">
         <v>3</v>
@@ -3236,7 +3242,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>44450</v>
+        <v>44455</v>
       </c>
       <c r="B351" t="s">
         <v>3</v>
@@ -3244,7 +3250,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>44451</v>
+        <v>44456</v>
       </c>
       <c r="B352" t="s">
         <v>3</v>
@@ -3252,7 +3258,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>44452</v>
+        <v>44457</v>
       </c>
       <c r="B353" t="s">
         <v>3</v>
@@ -3260,7 +3266,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>44453</v>
+        <v>44458</v>
       </c>
       <c r="B354" t="s">
         <v>3</v>
@@ -3268,7 +3274,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>44454</v>
+        <v>44459</v>
       </c>
       <c r="B355" t="s">
         <v>3</v>
@@ -3276,7 +3282,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>44455</v>
+        <v>44460</v>
       </c>
       <c r="B356" t="s">
         <v>3</v>
@@ -3284,7 +3290,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>44456</v>
+        <v>44461</v>
       </c>
       <c r="B357" t="s">
         <v>3</v>
@@ -3292,7 +3298,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>44457</v>
+        <v>44462</v>
       </c>
       <c r="B358" t="s">
         <v>3</v>
@@ -3300,7 +3306,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>44458</v>
+        <v>44463</v>
       </c>
       <c r="B359" t="s">
         <v>3</v>
@@ -3308,7 +3314,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>44459</v>
+        <v>44464</v>
       </c>
       <c r="B360" t="s">
         <v>3</v>
@@ -3316,7 +3322,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>44460</v>
+        <v>44465</v>
       </c>
       <c r="B361" t="s">
         <v>3</v>
@@ -3324,7 +3330,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>44461</v>
+        <v>44466</v>
       </c>
       <c r="B362" t="s">
         <v>3</v>
@@ -3332,7 +3338,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>44462</v>
+        <v>44467</v>
       </c>
       <c r="B363" t="s">
         <v>3</v>
@@ -3340,7 +3346,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <v>44463</v>
+        <v>44468</v>
       </c>
       <c r="B364" t="s">
         <v>3</v>
@@ -3348,7 +3354,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>44464</v>
+        <v>44469</v>
       </c>
       <c r="B365" t="s">
         <v>3</v>
@@ -3356,7 +3362,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <v>44465</v>
+        <v>44470</v>
       </c>
       <c r="B366" t="s">
         <v>3</v>
@@ -3364,7 +3370,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <v>44466</v>
+        <v>44471</v>
       </c>
       <c r="B367" t="s">
         <v>3</v>
@@ -3372,7 +3378,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
-        <v>44467</v>
+        <v>44472</v>
       </c>
       <c r="B368" t="s">
         <v>3</v>
@@ -3380,7 +3386,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
-        <v>44468</v>
+        <v>44473</v>
       </c>
       <c r="B369" t="s">
         <v>3</v>
@@ -3388,7 +3394,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
-        <v>44469</v>
+        <v>44474</v>
       </c>
       <c r="B370" t="s">
         <v>3</v>
@@ -3396,7 +3402,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
-        <v>44470</v>
+        <v>44475</v>
       </c>
       <c r="B371" t="s">
         <v>3</v>
@@ -3404,7 +3410,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
-        <v>44471</v>
+        <v>44476</v>
       </c>
       <c r="B372" t="s">
         <v>3</v>
@@ -3412,7 +3418,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
-        <v>44472</v>
+        <v>44477</v>
       </c>
       <c r="B373" t="s">
         <v>3</v>
@@ -3420,7 +3426,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
-        <v>44473</v>
+        <v>44478</v>
       </c>
       <c r="B374" t="s">
         <v>3</v>
@@ -3428,7 +3434,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
-        <v>44474</v>
+        <v>44479</v>
       </c>
       <c r="B375" t="s">
         <v>3</v>
@@ -3436,7 +3442,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
-        <v>44475</v>
+        <v>44480</v>
       </c>
       <c r="B376" t="s">
         <v>3</v>
@@ -3444,7 +3450,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
-        <v>44476</v>
+        <v>44481</v>
       </c>
       <c r="B377" t="s">
         <v>3</v>
@@ -3452,7 +3458,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
-        <v>44477</v>
+        <v>44482</v>
       </c>
       <c r="B378" t="s">
         <v>3</v>
@@ -3460,7 +3466,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
-        <v>44478</v>
+        <v>44483</v>
       </c>
       <c r="B379" t="s">
         <v>3</v>
@@ -3468,7 +3474,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
-        <v>44479</v>
+        <v>44484</v>
       </c>
       <c r="B380" t="s">
         <v>3</v>
@@ -3476,7 +3482,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
-        <v>44480</v>
+        <v>44485</v>
       </c>
       <c r="B381" t="s">
         <v>3</v>
@@ -3484,7 +3490,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
-        <v>44481</v>
+        <v>44486</v>
       </c>
       <c r="B382" t="s">
         <v>3</v>
@@ -3492,7 +3498,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
-        <v>44482</v>
+        <v>44487</v>
       </c>
       <c r="B383" t="s">
         <v>3</v>
@@ -3500,7 +3506,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
-        <v>44483</v>
+        <v>44488</v>
       </c>
       <c r="B384" t="s">
         <v>3</v>
@@ -3508,7 +3514,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
-        <v>44484</v>
+        <v>44489</v>
       </c>
       <c r="B385" t="s">
         <v>3</v>
@@ -3516,7 +3522,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
-        <v>44485</v>
+        <v>44490</v>
       </c>
       <c r="B386" t="s">
         <v>3</v>
@@ -3524,7 +3530,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
-        <v>44486</v>
+        <v>44491</v>
       </c>
       <c r="B387" t="s">
         <v>3</v>
@@ -3532,7 +3538,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
-        <v>44487</v>
+        <v>44492</v>
       </c>
       <c r="B388" t="s">
         <v>3</v>
@@ -3540,7 +3546,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
-        <v>44488</v>
+        <v>44493</v>
       </c>
       <c r="B389" t="s">
         <v>3</v>
@@ -3548,7 +3554,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
-        <v>44489</v>
+        <v>44494</v>
       </c>
       <c r="B390" t="s">
         <v>3</v>
@@ -3556,7 +3562,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
-        <v>44490</v>
+        <v>44495</v>
       </c>
       <c r="B391" t="s">
         <v>3</v>
@@ -3564,7 +3570,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
-        <v>44491</v>
+        <v>44496</v>
       </c>
       <c r="B392" t="s">
         <v>3</v>
@@ -3572,7 +3578,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
-        <v>44492</v>
+        <v>44497</v>
       </c>
       <c r="B393" t="s">
         <v>3</v>
@@ -3580,7 +3586,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
-        <v>44493</v>
+        <v>44498</v>
       </c>
       <c r="B394" t="s">
         <v>3</v>
@@ -3588,7 +3594,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
-        <v>44494</v>
+        <v>44499</v>
       </c>
       <c r="B395" t="s">
         <v>3</v>
@@ -3596,7 +3602,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
-        <v>44495</v>
+        <v>44500</v>
       </c>
       <c r="B396" t="s">
         <v>3</v>
@@ -3604,7 +3610,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
-        <v>44496</v>
+        <v>44501</v>
       </c>
       <c r="B397" t="s">
         <v>3</v>
@@ -3612,7 +3618,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
-        <v>44497</v>
+        <v>44502</v>
       </c>
       <c r="B398" t="s">
         <v>3</v>
@@ -3620,7 +3626,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
-        <v>44498</v>
+        <v>44503</v>
       </c>
       <c r="B399" t="s">
         <v>3</v>
@@ -3628,7 +3634,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
-        <v>44499</v>
+        <v>44504</v>
       </c>
       <c r="B400" t="s">
         <v>3</v>
@@ -3636,7 +3642,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
-        <v>44500</v>
+        <v>44505</v>
       </c>
       <c r="B401" t="s">
         <v>3</v>
@@ -3644,7 +3650,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
-        <v>44501</v>
+        <v>44506</v>
       </c>
       <c r="B402" t="s">
         <v>3</v>
@@ -3652,7 +3658,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
-        <v>44502</v>
+        <v>44507</v>
       </c>
       <c r="B403" t="s">
         <v>3</v>
@@ -3660,7 +3666,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
-        <v>44503</v>
+        <v>44508</v>
       </c>
       <c r="B404" t="s">
         <v>3</v>
@@ -3668,7 +3674,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
-        <v>44504</v>
+        <v>44509</v>
       </c>
       <c r="B405" t="s">
         <v>3</v>
@@ -3676,7 +3682,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
-        <v>44505</v>
+        <v>44510</v>
       </c>
       <c r="B406" t="s">
         <v>3</v>
@@ -3684,7 +3690,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
-        <v>44506</v>
+        <v>44511</v>
       </c>
       <c r="B407" t="s">
         <v>3</v>
@@ -3692,7 +3698,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
-        <v>44507</v>
+        <v>44512</v>
       </c>
       <c r="B408" t="s">
         <v>3</v>
@@ -3700,7 +3706,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
-        <v>44508</v>
+        <v>44513</v>
       </c>
       <c r="B409" t="s">
         <v>3</v>
@@ -3708,7 +3714,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
-        <v>44509</v>
+        <v>44514</v>
       </c>
       <c r="B410" t="s">
         <v>3</v>
@@ -3716,7 +3722,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <v>44510</v>
+        <v>44515</v>
       </c>
       <c r="B411" t="s">
         <v>3</v>
@@ -3724,7 +3730,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
-        <v>44511</v>
+        <v>44516</v>
       </c>
       <c r="B412" t="s">
         <v>3</v>
@@ -3732,7 +3738,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
-        <v>44512</v>
+        <v>44517</v>
       </c>
       <c r="B413" t="s">
         <v>3</v>
@@ -3740,7 +3746,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
-        <v>44513</v>
+        <v>44518</v>
       </c>
       <c r="B414" t="s">
         <v>3</v>
@@ -3748,7 +3754,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
-        <v>44514</v>
+        <v>44519</v>
       </c>
       <c r="B415" t="s">
         <v>3</v>
@@ -3756,7 +3762,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
-        <v>44515</v>
+        <v>44520</v>
       </c>
       <c r="B416" t="s">
         <v>3</v>
@@ -3764,7 +3770,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
-        <v>44516</v>
+        <v>44521</v>
       </c>
       <c r="B417" t="s">
         <v>3</v>
@@ -3772,7 +3778,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
-        <v>44517</v>
+        <v>44522</v>
       </c>
       <c r="B418" t="s">
         <v>3</v>
@@ -3780,7 +3786,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
-        <v>44518</v>
+        <v>44523</v>
       </c>
       <c r="B419" t="s">
         <v>3</v>
@@ -3788,7 +3794,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
-        <v>44519</v>
+        <v>44524</v>
       </c>
       <c r="B420" t="s">
         <v>3</v>
@@ -3796,7 +3802,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
-        <v>44520</v>
+        <v>44525</v>
       </c>
       <c r="B421" t="s">
         <v>3</v>
@@ -3804,7 +3810,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
-        <v>44521</v>
+        <v>44526</v>
       </c>
       <c r="B422" t="s">
         <v>3</v>
@@ -3812,7 +3818,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
-        <v>44522</v>
+        <v>44527</v>
       </c>
       <c r="B423" t="s">
         <v>3</v>
@@ -3820,7 +3826,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
-        <v>44523</v>
+        <v>44528</v>
       </c>
       <c r="B424" t="s">
         <v>3</v>
@@ -3828,7 +3834,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
-        <v>44524</v>
+        <v>44529</v>
       </c>
       <c r="B425" t="s">
         <v>3</v>
@@ -3836,7 +3842,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
-        <v>44525</v>
+        <v>44530</v>
       </c>
       <c r="B426" t="s">
         <v>3</v>
@@ -3844,7 +3850,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
-        <v>44526</v>
+        <v>44531</v>
       </c>
       <c r="B427" t="s">
         <v>3</v>
@@ -3852,7 +3858,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
-        <v>44527</v>
+        <v>44532</v>
       </c>
       <c r="B428" t="s">
         <v>3</v>
@@ -3860,7 +3866,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
-        <v>44528</v>
+        <v>44533</v>
       </c>
       <c r="B429" t="s">
         <v>3</v>
@@ -3868,7 +3874,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
-        <v>44529</v>
+        <v>44534</v>
       </c>
       <c r="B430" t="s">
         <v>3</v>
@@ -3876,7 +3882,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
-        <v>44530</v>
+        <v>44535</v>
       </c>
       <c r="B431" t="s">
         <v>3</v>
@@ -3884,7 +3890,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
-        <v>44531</v>
+        <v>44536</v>
       </c>
       <c r="B432" t="s">
         <v>3</v>
@@ -3892,7 +3898,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
-        <v>44532</v>
+        <v>44537</v>
       </c>
       <c r="B433" t="s">
         <v>3</v>
@@ -3900,7 +3906,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
-        <v>44533</v>
+        <v>44538</v>
       </c>
       <c r="B434" t="s">
         <v>3</v>
@@ -3908,7 +3914,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
-        <v>44534</v>
+        <v>44539</v>
       </c>
       <c r="B435" t="s">
         <v>3</v>
@@ -3916,7 +3922,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
-        <v>44535</v>
+        <v>44540</v>
       </c>
       <c r="B436" t="s">
         <v>3</v>
@@ -3924,7 +3930,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
-        <v>44536</v>
+        <v>44541</v>
       </c>
       <c r="B437" t="s">
         <v>3</v>
@@ -3932,7 +3938,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
-        <v>44537</v>
+        <v>44542</v>
       </c>
       <c r="B438" t="s">
         <v>3</v>
@@ -3940,7 +3946,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
-        <v>44538</v>
+        <v>44543</v>
       </c>
       <c r="B439" t="s">
         <v>3</v>
@@ -3948,7 +3954,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
-        <v>44539</v>
+        <v>44544</v>
       </c>
       <c r="B440" t="s">
         <v>3</v>
@@ -3956,7 +3962,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
-        <v>44540</v>
+        <v>44545</v>
       </c>
       <c r="B441" t="s">
         <v>3</v>
@@ -3964,7 +3970,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
-        <v>44541</v>
+        <v>44546</v>
       </c>
       <c r="B442" t="s">
         <v>3</v>
@@ -3972,7 +3978,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
-        <v>44542</v>
+        <v>44547</v>
       </c>
       <c r="B443" t="s">
         <v>3</v>
@@ -3980,7 +3986,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
-        <v>44543</v>
+        <v>44548</v>
       </c>
       <c r="B444" t="s">
         <v>3</v>
@@ -3988,7 +3994,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
-        <v>44544</v>
+        <v>44549</v>
       </c>
       <c r="B445" t="s">
         <v>3</v>
@@ -3996,7 +4002,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
-        <v>44545</v>
+        <v>44550</v>
       </c>
       <c r="B446" t="s">
         <v>3</v>
@@ -4004,7 +4010,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
-        <v>44546</v>
+        <v>44551</v>
       </c>
       <c r="B447" t="s">
         <v>3</v>
@@ -4012,7 +4018,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
-        <v>44547</v>
+        <v>44552</v>
       </c>
       <c r="B448" t="s">
         <v>3</v>
@@ -4020,7 +4026,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
-        <v>44548</v>
+        <v>44553</v>
       </c>
       <c r="B449" t="s">
         <v>3</v>
@@ -4028,7 +4034,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
-        <v>44549</v>
+        <v>44554</v>
       </c>
       <c r="B450" t="s">
         <v>3</v>
@@ -4036,7 +4042,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
-        <v>44550</v>
+        <v>44555</v>
       </c>
       <c r="B451" t="s">
         <v>3</v>
@@ -4044,7 +4050,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
-        <v>44551</v>
+        <v>44556</v>
       </c>
       <c r="B452" t="s">
         <v>3</v>
@@ -4052,7 +4058,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
-        <v>44552</v>
+        <v>44557</v>
       </c>
       <c r="B453" t="s">
         <v>3</v>
@@ -4060,7 +4066,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="B454" t="s">
         <v>3</v>
@@ -4068,7 +4074,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
-        <v>44554</v>
+        <v>44559</v>
       </c>
       <c r="B455" t="s">
         <v>3</v>
@@ -4076,7 +4082,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
-        <v>44555</v>
+        <v>44560</v>
       </c>
       <c r="B456" t="s">
         <v>3</v>
@@ -4084,7 +4090,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
-        <v>44556</v>
+        <v>44561</v>
       </c>
       <c r="B457" t="s">
         <v>3</v>
@@ -4092,7 +4098,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
-        <v>44557</v>
+        <v>44562</v>
       </c>
       <c r="B458" t="s">
         <v>3</v>
@@ -4100,7 +4106,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
-        <v>44558</v>
+        <v>44563</v>
       </c>
       <c r="B459" t="s">
         <v>3</v>
@@ -4108,7 +4114,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
-        <v>44559</v>
+        <v>44564</v>
       </c>
       <c r="B460" t="s">
         <v>3</v>
@@ -4116,7 +4122,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
-        <v>44560</v>
+        <v>44565</v>
       </c>
       <c r="B461" t="s">
         <v>3</v>
@@ -4124,7 +4130,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
-        <v>44561</v>
+        <v>44566</v>
       </c>
       <c r="B462" t="s">
         <v>3</v>
@@ -4132,7 +4138,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
-        <v>44562</v>
+        <v>44567</v>
       </c>
       <c r="B463" t="s">
         <v>3</v>
@@ -4140,7 +4146,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
-        <v>44563</v>
+        <v>44568</v>
       </c>
       <c r="B464" t="s">
         <v>3</v>
@@ -4148,7 +4154,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
-        <v>44564</v>
+        <v>44569</v>
       </c>
       <c r="B465" t="s">
         <v>3</v>
@@ -4156,7 +4162,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
-        <v>44565</v>
+        <v>44570</v>
       </c>
       <c r="B466" t="s">
         <v>3</v>
@@ -4164,7 +4170,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
-        <v>44566</v>
+        <v>44571</v>
       </c>
       <c r="B467" t="s">
         <v>3</v>
@@ -4172,7 +4178,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
-        <v>44567</v>
+        <v>44572</v>
       </c>
       <c r="B468" t="s">
         <v>3</v>
@@ -4180,7 +4186,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
-        <v>44568</v>
+        <v>44573</v>
       </c>
       <c r="B469" t="s">
         <v>3</v>
@@ -4188,7 +4194,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
-        <v>44569</v>
+        <v>44574</v>
       </c>
       <c r="B470" t="s">
         <v>3</v>
@@ -4196,7 +4202,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
-        <v>44570</v>
+        <v>44575</v>
       </c>
       <c r="B471" t="s">
         <v>3</v>
@@ -4204,7 +4210,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
-        <v>44571</v>
+        <v>44576</v>
       </c>
       <c r="B472" t="s">
         <v>3</v>
@@ -4212,7 +4218,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
-        <v>44572</v>
+        <v>44577</v>
       </c>
       <c r="B473" t="s">
         <v>3</v>
@@ -4220,7 +4226,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
-        <v>44573</v>
+        <v>44578</v>
       </c>
       <c r="B474" t="s">
         <v>3</v>
@@ -4228,7 +4234,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
-        <v>44574</v>
+        <v>44579</v>
       </c>
       <c r="B475" t="s">
         <v>3</v>
@@ -4236,7 +4242,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
-        <v>44575</v>
+        <v>44580</v>
       </c>
       <c r="B476" t="s">
         <v>3</v>
@@ -4244,7 +4250,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
-        <v>44576</v>
+        <v>44581</v>
       </c>
       <c r="B477" t="s">
         <v>3</v>
@@ -4252,103 +4258,103 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
-        <v>44941</v>
+        <v>44582</v>
       </c>
       <c r="B478" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
-        <v>44942</v>
+        <v>44583</v>
       </c>
       <c r="B479" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
-        <v>44943</v>
+        <v>44584</v>
       </c>
       <c r="B480" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
-        <v>44944</v>
+        <v>44585</v>
       </c>
       <c r="B481" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
-        <v>44945</v>
+        <v>44586</v>
       </c>
       <c r="B482" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
-        <v>44946</v>
+        <v>44587</v>
       </c>
       <c r="B483" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
-        <v>44948</v>
+        <v>44588</v>
       </c>
       <c r="B484" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
-        <v>44949</v>
+        <v>44589</v>
       </c>
       <c r="B485" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
-        <v>44950</v>
+        <v>44590</v>
       </c>
       <c r="B486" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
-        <v>44951</v>
+        <v>44591</v>
       </c>
       <c r="B487" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
-        <v>44952</v>
+        <v>44592</v>
       </c>
       <c r="B488" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
-        <v>44953</v>
+        <v>44593</v>
       </c>
       <c r="B489" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
-        <v>44954</v>
+        <v>44941</v>
       </c>
       <c r="B490" t="s">
         <v>5</v>
@@ -4356,7 +4362,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
-        <v>44955</v>
+        <v>44942</v>
       </c>
       <c r="B491" t="s">
         <v>5</v>
@@ -4364,7 +4370,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
-        <v>44956</v>
+        <v>44943</v>
       </c>
       <c r="B492" t="s">
         <v>5</v>
@@ -4372,7 +4378,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
-        <v>44957</v>
+        <v>44944</v>
       </c>
       <c r="B493" t="s">
         <v>5</v>
@@ -4380,7 +4386,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
-        <v>44587</v>
+        <v>44945</v>
       </c>
       <c r="B494" t="s">
         <v>5</v>
@@ -4388,7 +4394,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
-        <v>44588</v>
+        <v>44946</v>
       </c>
       <c r="B495" t="s">
         <v>5</v>
@@ -4396,7 +4402,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
-        <v>44589</v>
+        <v>44948</v>
       </c>
       <c r="B496" t="s">
         <v>5</v>
@@ -4404,7 +4410,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
-        <v>44590</v>
+        <v>44949</v>
       </c>
       <c r="B497" t="s">
         <v>5</v>
@@ -4412,7 +4418,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
-        <v>44591</v>
+        <v>44950</v>
       </c>
       <c r="B498" t="s">
         <v>5</v>
@@ -4420,7 +4426,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
-        <v>44594</v>
+        <v>44951</v>
       </c>
       <c r="B499" t="s">
         <v>5</v>
@@ -4428,7 +4434,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
-        <v>44595</v>
+        <v>44952</v>
       </c>
       <c r="B500" t="s">
         <v>5</v>
@@ -4436,7 +4442,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
-        <v>44596</v>
+        <v>44953</v>
       </c>
       <c r="B501" t="s">
         <v>5</v>
@@ -4444,7 +4450,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
-        <v>44597</v>
+        <v>44954</v>
       </c>
       <c r="B502" t="s">
         <v>5</v>
@@ -4452,7 +4458,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
-        <v>44598</v>
+        <v>44955</v>
       </c>
       <c r="B503" t="s">
         <v>5</v>
@@ -4460,7 +4466,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <v>44599</v>
+        <v>44956</v>
       </c>
       <c r="B504" t="s">
         <v>5</v>
@@ -4468,7 +4474,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
-        <v>44600</v>
+        <v>44957</v>
       </c>
       <c r="B505" t="s">
         <v>5</v>
@@ -4476,7 +4482,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
-        <v>44601</v>
+        <v>44595</v>
       </c>
       <c r="B506" t="s">
         <v>5</v>
@@ -4484,7 +4490,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
-        <v>44602</v>
+        <v>44596</v>
       </c>
       <c r="B507" t="s">
         <v>5</v>
@@ -4492,7 +4498,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
-        <v>42047</v>
+        <v>44597</v>
       </c>
       <c r="B508" t="s">
         <v>5</v>
@@ -4500,7 +4506,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
-        <v>42048</v>
+        <v>44598</v>
       </c>
       <c r="B509" t="s">
         <v>5</v>
@@ -4508,7 +4514,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
-        <v>42049</v>
+        <v>44599</v>
       </c>
       <c r="B510" t="s">
         <v>5</v>
@@ -4516,7 +4522,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
-        <v>42050</v>
+        <v>44600</v>
       </c>
       <c r="B511" t="s">
         <v>5</v>
@@ -4524,7 +4530,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
-        <v>42051</v>
+        <v>44601</v>
       </c>
       <c r="B512" t="s">
         <v>5</v>
@@ -4532,7 +4538,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
-        <v>42052</v>
+        <v>44602</v>
       </c>
       <c r="B513" t="s">
         <v>5</v>
@@ -4540,7 +4546,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
-        <v>42055</v>
+        <v>42047</v>
       </c>
       <c r="B514" t="s">
         <v>5</v>
@@ -4548,7 +4554,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
-        <v>42056</v>
+        <v>42048</v>
       </c>
       <c r="B515" t="s">
         <v>5</v>
@@ -4556,7 +4562,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
-        <v>42057</v>
+        <v>42049</v>
       </c>
       <c r="B516" t="s">
         <v>5</v>
@@ -4564,7 +4570,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
-        <v>42058</v>
+        <v>42050</v>
       </c>
       <c r="B517" t="s">
         <v>5</v>
@@ -4572,7 +4578,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
-        <v>42059</v>
+        <v>42051</v>
       </c>
       <c r="B518" t="s">
         <v>5</v>
@@ -4580,7 +4586,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
-        <v>42060</v>
+        <v>42052</v>
       </c>
       <c r="B519" t="s">
         <v>5</v>
@@ -4588,7 +4594,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
-        <v>42061</v>
+        <v>42055</v>
       </c>
       <c r="B520" t="s">
         <v>5</v>
@@ -4596,7 +4602,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
-        <v>42062</v>
+        <v>42056</v>
       </c>
       <c r="B521" t="s">
         <v>5</v>
@@ -4604,7 +4610,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
-        <v>42063</v>
+        <v>42057</v>
       </c>
       <c r="B522" t="s">
         <v>5</v>
@@ -4612,7 +4618,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
-        <v>42064</v>
+        <v>42058</v>
       </c>
       <c r="B523" t="s">
         <v>5</v>
@@ -4620,7 +4626,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
-        <v>42065</v>
+        <v>42059</v>
       </c>
       <c r="B524" t="s">
         <v>5</v>
@@ -4628,7 +4634,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
-        <v>42402</v>
+        <v>42060</v>
       </c>
       <c r="B525" t="s">
         <v>5</v>
@@ -4636,7 +4642,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
-        <v>42403</v>
+        <v>42061</v>
       </c>
       <c r="B526" t="s">
         <v>5</v>
@@ -4644,7 +4650,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
-        <v>42404</v>
+        <v>42062</v>
       </c>
       <c r="B527" t="s">
         <v>5</v>
@@ -4652,7 +4658,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
-        <v>42405</v>
+        <v>42063</v>
       </c>
       <c r="B528" t="s">
         <v>5</v>
@@ -4660,7 +4666,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
-        <v>42406</v>
+        <v>42064</v>
       </c>
       <c r="B529" t="s">
         <v>5</v>
@@ -4668,7 +4674,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
-        <v>42409</v>
+        <v>42065</v>
       </c>
       <c r="B530" t="s">
         <v>5</v>
@@ -4676,7 +4682,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
-        <v>42410</v>
+        <v>42402</v>
       </c>
       <c r="B531" t="s">
         <v>5</v>
@@ -4684,7 +4690,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
-        <v>42411</v>
+        <v>42403</v>
       </c>
       <c r="B532" t="s">
         <v>5</v>
@@ -4692,7 +4698,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
-        <v>42412</v>
+        <v>42404</v>
       </c>
       <c r="B533" t="s">
         <v>5</v>
@@ -4700,7 +4706,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
-        <v>42413</v>
+        <v>42405</v>
       </c>
       <c r="B534" t="s">
         <v>5</v>
@@ -4708,7 +4714,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
-        <v>42414</v>
+        <v>42406</v>
       </c>
       <c r="B535" t="s">
         <v>5</v>
@@ -4716,7 +4722,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
-        <v>42415</v>
+        <v>42409</v>
       </c>
       <c r="B536" t="s">
         <v>5</v>
@@ -4724,7 +4730,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
-        <v>42416</v>
+        <v>42410</v>
       </c>
       <c r="B537" t="s">
         <v>5</v>
@@ -4732,7 +4738,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
-        <v>42756</v>
+        <v>42411</v>
       </c>
       <c r="B538" t="s">
         <v>5</v>
@@ -4740,7 +4746,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
-        <v>42757</v>
+        <v>42412</v>
       </c>
       <c r="B539" t="s">
         <v>5</v>
@@ -4748,7 +4754,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
-        <v>42758</v>
+        <v>42413</v>
       </c>
       <c r="B540" t="s">
         <v>5</v>
@@ -4756,7 +4762,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
-        <v>42759</v>
+        <v>42414</v>
       </c>
       <c r="B541" t="s">
         <v>5</v>
@@ -4764,7 +4770,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
-        <v>42760</v>
+        <v>42415</v>
       </c>
       <c r="B542" t="s">
         <v>5</v>
@@ -4772,7 +4778,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
-        <v>42761</v>
+        <v>42416</v>
       </c>
       <c r="B543" t="s">
         <v>5</v>
@@ -4780,7 +4786,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
-        <v>42764</v>
+        <v>42756</v>
       </c>
       <c r="B544" t="s">
         <v>5</v>
@@ -4788,7 +4794,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
-        <v>42765</v>
+        <v>42757</v>
       </c>
       <c r="B545" t="s">
         <v>5</v>
@@ -4796,7 +4802,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
-        <v>42766</v>
+        <v>42758</v>
       </c>
       <c r="B546" t="s">
         <v>5</v>
@@ -4804,7 +4810,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
-        <v>42767</v>
+        <v>42759</v>
       </c>
       <c r="B547" t="s">
         <v>5</v>
@@ -4812,7 +4818,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
-        <v>42768</v>
+        <v>42760</v>
       </c>
       <c r="B548" t="s">
         <v>5</v>
@@ -4820,7 +4826,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
-        <v>42769</v>
+        <v>42761</v>
       </c>
       <c r="B549" t="s">
         <v>5</v>
@@ -4828,7 +4834,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
-        <v>42770</v>
+        <v>42764</v>
       </c>
       <c r="B550" t="s">
         <v>5</v>
@@ -4836,7 +4842,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
-        <v>42771</v>
+        <v>42765</v>
       </c>
       <c r="B551" t="s">
         <v>5</v>
@@ -4844,7 +4850,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
-        <v>42772</v>
+        <v>42766</v>
       </c>
       <c r="B552" t="s">
         <v>5</v>
@@ -4852,7 +4858,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
-        <v>43140</v>
+        <v>42767</v>
       </c>
       <c r="B553" t="s">
         <v>5</v>
@@ -4860,8 +4866,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
-        <f>A553+1</f>
-        <v>43141</v>
+        <v>42768</v>
       </c>
       <c r="B554" t="s">
         <v>5</v>
@@ -4869,8 +4874,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
-        <f t="shared" ref="A555:A570" si="0">A554+1</f>
-        <v>43142</v>
+        <v>42769</v>
       </c>
       <c r="B555" t="s">
         <v>5</v>
@@ -4878,8 +4882,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
-        <f t="shared" si="0"/>
-        <v>43143</v>
+        <v>42770</v>
       </c>
       <c r="B556" t="s">
         <v>5</v>
@@ -4887,8 +4890,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
-        <f t="shared" si="0"/>
-        <v>43144</v>
+        <v>42771</v>
       </c>
       <c r="B557" t="s">
         <v>5</v>
@@ -4896,8 +4898,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
-        <f t="shared" si="0"/>
-        <v>43145</v>
+        <v>42772</v>
       </c>
       <c r="B558" t="s">
         <v>5</v>
@@ -4905,7 +4906,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
-        <v>43148</v>
+        <v>43140</v>
       </c>
       <c r="B559" t="s">
         <v>5</v>
@@ -4913,8 +4914,8 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
-        <f t="shared" si="0"/>
-        <v>43149</v>
+        <f>A559+1</f>
+        <v>43141</v>
       </c>
       <c r="B560" t="s">
         <v>5</v>
@@ -4922,8 +4923,8 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
-        <f t="shared" si="0"/>
-        <v>43150</v>
+        <f t="shared" ref="A561:A576" si="0">A560+1</f>
+        <v>43142</v>
       </c>
       <c r="B561" t="s">
         <v>5</v>
@@ -4932,7 +4933,7 @@
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <f t="shared" si="0"/>
-        <v>43151</v>
+        <v>43143</v>
       </c>
       <c r="B562" t="s">
         <v>5</v>
@@ -4941,7 +4942,7 @@
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <f t="shared" si="0"/>
-        <v>43152</v>
+        <v>43144</v>
       </c>
       <c r="B563" t="s">
         <v>5</v>
@@ -4950,7 +4951,7 @@
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <f t="shared" si="0"/>
-        <v>43153</v>
+        <v>43145</v>
       </c>
       <c r="B564" t="s">
         <v>5</v>
@@ -4958,8 +4959,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
-        <f t="shared" si="0"/>
-        <v>43154</v>
+        <v>43148</v>
       </c>
       <c r="B565" t="s">
         <v>5</v>
@@ -4968,7 +4968,7 @@
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <f t="shared" si="0"/>
-        <v>43155</v>
+        <v>43149</v>
       </c>
       <c r="B566" t="s">
         <v>5</v>
@@ -4977,7 +4977,7 @@
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <f t="shared" si="0"/>
-        <v>43156</v>
+        <v>43150</v>
       </c>
       <c r="B567" t="s">
         <v>5</v>
@@ -4986,7 +4986,7 @@
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <f t="shared" si="0"/>
-        <v>43157</v>
+        <v>43151</v>
       </c>
       <c r="B568" t="s">
         <v>5</v>
@@ -4995,7 +4995,7 @@
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <f t="shared" si="0"/>
-        <v>43158</v>
+        <v>43152</v>
       </c>
       <c r="B569" t="s">
         <v>5</v>
@@ -5004,7 +5004,7 @@
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <f t="shared" si="0"/>
-        <v>43159</v>
+        <v>43153</v>
       </c>
       <c r="B570" t="s">
         <v>5</v>
@@ -5012,7 +5012,8 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
-        <v>43494</v>
+        <f t="shared" si="0"/>
+        <v>43154</v>
       </c>
       <c r="B571" t="s">
         <v>5</v>
@@ -5020,7 +5021,8 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
-        <v>43495</v>
+        <f t="shared" si="0"/>
+        <v>43155</v>
       </c>
       <c r="B572" t="s">
         <v>5</v>
@@ -5028,7 +5030,8 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
-        <v>43496</v>
+        <f t="shared" si="0"/>
+        <v>43156</v>
       </c>
       <c r="B573" t="s">
         <v>5</v>
@@ -5036,7 +5039,8 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
-        <v>43497</v>
+        <f t="shared" si="0"/>
+        <v>43157</v>
       </c>
       <c r="B574" t="s">
         <v>5</v>
@@ -5044,7 +5048,8 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
-        <v>43498</v>
+        <f t="shared" si="0"/>
+        <v>43158</v>
       </c>
       <c r="B575" t="s">
         <v>5</v>
@@ -5052,7 +5057,8 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
-        <v>43499</v>
+        <f t="shared" si="0"/>
+        <v>43159</v>
       </c>
       <c r="B576" t="s">
         <v>5</v>
@@ -5060,7 +5066,7 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
-        <v>43502</v>
+        <v>43494</v>
       </c>
       <c r="B577" t="s">
         <v>5</v>
@@ -5068,7 +5074,7 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
-        <v>43503</v>
+        <v>43495</v>
       </c>
       <c r="B578" t="s">
         <v>5</v>
@@ -5076,7 +5082,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
-        <v>43504</v>
+        <v>43496</v>
       </c>
       <c r="B579" t="s">
         <v>5</v>
@@ -5084,7 +5090,7 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
-        <v>43505</v>
+        <v>43497</v>
       </c>
       <c r="B580" t="s">
         <v>5</v>
@@ -5092,7 +5098,7 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
-        <v>43506</v>
+        <v>43498</v>
       </c>
       <c r="B581" t="s">
         <v>5</v>
@@ -5100,7 +5106,7 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
-        <v>43507</v>
+        <v>43499</v>
       </c>
       <c r="B582" t="s">
         <v>5</v>
@@ -5108,7 +5114,7 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
-        <v>43508</v>
+        <v>43502</v>
       </c>
       <c r="B583" t="s">
         <v>5</v>
@@ -5116,7 +5122,7 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
-        <v>43509</v>
+        <v>43503</v>
       </c>
       <c r="B584" t="s">
         <v>5</v>
@@ -5124,7 +5130,7 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
-        <v>43510</v>
+        <v>43504</v>
       </c>
       <c r="B585" t="s">
         <v>5</v>
@@ -5132,7 +5138,7 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
-        <v>43511</v>
+        <v>43505</v>
       </c>
       <c r="B586" t="s">
         <v>5</v>
@@ -5140,7 +5146,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
-        <v>43512</v>
+        <v>43506</v>
       </c>
       <c r="B587" t="s">
         <v>5</v>
@@ -5148,160 +5154,154 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
-        <f t="shared" ref="A588:A592" si="1">A589-1</f>
-        <v>42118</v>
+        <v>43507</v>
       </c>
       <c r="B588" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
+        <v>43508</v>
+      </c>
+      <c r="B589" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" s="1">
+        <v>43509</v>
+      </c>
+      <c r="B590" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" s="1">
+        <v>43510</v>
+      </c>
+      <c r="B591" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" s="1">
+        <v>43511</v>
+      </c>
+      <c r="B592" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" s="1">
+        <v>43512</v>
+      </c>
+      <c r="B593" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" s="1">
+        <f t="shared" ref="A594:A598" si="1">A595-1</f>
+        <v>42118</v>
+      </c>
+      <c r="B594" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" s="1">
         <f t="shared" si="1"/>
         <v>42119</v>
       </c>
-      <c r="B589" t="s">
+      <c r="B595" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A590" s="1">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" s="1">
         <f t="shared" si="1"/>
         <v>42120</v>
       </c>
-      <c r="B590" t="s">
+      <c r="B596" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A591" s="1">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" s="1">
         <f t="shared" si="1"/>
         <v>42121</v>
       </c>
-      <c r="B591" t="s">
+      <c r="B597" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A592" s="1">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" s="1">
         <f t="shared" si="1"/>
         <v>42122</v>
       </c>
-      <c r="B592" t="s">
+      <c r="B598" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A593" s="1">
-        <f>A594-1</f>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" s="1">
+        <f>A600-1</f>
         <v>42123</v>
       </c>
-      <c r="B593" t="s">
+      <c r="B599" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A594" s="1">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" s="1">
         <v>42124</v>
       </c>
-      <c r="B594" t="s">
+      <c r="B600" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A595" s="1">
-        <f>A594+1</f>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" s="1">
+        <f>A600+1</f>
         <v>42125</v>
       </c>
-      <c r="B595" t="s">
+      <c r="B601" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A596" s="1">
-        <f t="shared" ref="A596:A598" si="2">A595+1</f>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" s="1">
+        <f t="shared" ref="A602:A604" si="2">A601+1</f>
         <v>42126</v>
       </c>
-      <c r="B596" t="s">
+      <c r="B602" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A597" s="1">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" s="1">
         <f t="shared" si="2"/>
         <v>42127</v>
       </c>
-      <c r="B597" t="s">
+      <c r="B603" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A598" s="1">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" s="1">
         <f t="shared" si="2"/>
         <v>42128</v>
       </c>
-      <c r="B598" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A599" s="1">
-        <f t="shared" ref="A599:A607" si="3">A600-1</f>
-        <v>42484</v>
-      </c>
-      <c r="B599" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A600" s="1">
-        <f t="shared" si="3"/>
-        <v>42485</v>
-      </c>
-      <c r="B600" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A601" s="1">
-        <f t="shared" si="3"/>
-        <v>42486</v>
-      </c>
-      <c r="B601" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A602" s="1">
-        <f t="shared" si="3"/>
-        <v>42487</v>
-      </c>
-      <c r="B602" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A603" s="1">
-        <f t="shared" si="3"/>
-        <v>42488</v>
-      </c>
-      <c r="B603" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A604" s="1">
-        <f t="shared" si="3"/>
-        <v>42489</v>
-      </c>
       <c r="B604" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
-        <f t="shared" si="3"/>
-        <v>42490</v>
+        <f t="shared" ref="A605:A613" si="3">A606-1</f>
+        <v>42484</v>
       </c>
       <c r="B605" t="s">
         <v>6</v>
@@ -5310,7 +5310,7 @@
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <f t="shared" si="3"/>
-        <v>42491</v>
+        <v>42485</v>
       </c>
       <c r="B606" t="s">
         <v>6</v>
@@ -5319,7 +5319,7 @@
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <f t="shared" si="3"/>
-        <v>42492</v>
+        <v>42486</v>
       </c>
       <c r="B607" t="s">
         <v>6</v>
@@ -5327,8 +5327,8 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
-        <f>A609-1</f>
-        <v>42493</v>
+        <f t="shared" si="3"/>
+        <v>42487</v>
       </c>
       <c r="B608" t="s">
         <v>6</v>
@@ -5336,7 +5336,8 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
-        <v>42494</v>
+        <f t="shared" si="3"/>
+        <v>42488</v>
       </c>
       <c r="B609" t="s">
         <v>6</v>
@@ -5344,8 +5345,8 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
-        <f t="shared" ref="A610:A616" si="4">A611-1</f>
-        <v>42851</v>
+        <f t="shared" si="3"/>
+        <v>42489</v>
       </c>
       <c r="B610" t="s">
         <v>6</v>
@@ -5353,8 +5354,8 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
-        <f t="shared" si="4"/>
-        <v>42852</v>
+        <f t="shared" si="3"/>
+        <v>42490</v>
       </c>
       <c r="B611" t="s">
         <v>6</v>
@@ -5362,8 +5363,8 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
-        <f t="shared" si="4"/>
-        <v>42853</v>
+        <f t="shared" si="3"/>
+        <v>42491</v>
       </c>
       <c r="B612" t="s">
         <v>6</v>
@@ -5371,8 +5372,8 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
-        <f t="shared" si="4"/>
-        <v>42854</v>
+        <f t="shared" si="3"/>
+        <v>42492</v>
       </c>
       <c r="B613" t="s">
         <v>6</v>
@@ -5380,8 +5381,8 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
-        <f t="shared" si="4"/>
-        <v>42855</v>
+        <f>A615-1</f>
+        <v>42493</v>
       </c>
       <c r="B614" t="s">
         <v>6</v>
@@ -5389,8 +5390,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
-        <f t="shared" si="4"/>
-        <v>42856</v>
+        <v>42494</v>
       </c>
       <c r="B615" t="s">
         <v>6</v>
@@ -5398,60 +5398,58 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
+        <v>42851</v>
+      </c>
+      <c r="B616" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" s="1">
+        <v>42852</v>
+      </c>
+      <c r="B617" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" s="1">
+        <v>42853</v>
+      </c>
+      <c r="B618" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" s="1">
+        <v>42854</v>
+      </c>
+      <c r="B619" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" s="1">
+        <f t="shared" ref="A620:A621" si="4">A621-1</f>
+        <v>42856</v>
+      </c>
+      <c r="B620" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" s="1">
         <f t="shared" si="4"/>
         <v>42857</v>
       </c>
-      <c r="B616" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A617" s="1">
-        <f>A618-1</f>
-        <v>42858</v>
-      </c>
-      <c r="B617" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A618" s="1">
-        <v>42859</v>
-      </c>
-      <c r="B618" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A619" s="1">
-        <v>43217</v>
-      </c>
-      <c r="B619" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A620" s="1">
-        <f>A619+1</f>
-        <v>43218</v>
-      </c>
-      <c r="B620" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A621" s="1">
-        <f t="shared" ref="A621:A624" si="5">A620+1</f>
-        <v>43219</v>
-      </c>
       <c r="B621" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
-        <f t="shared" si="5"/>
-        <v>43220</v>
+        <f>A623-1</f>
+        <v>42858</v>
       </c>
       <c r="B622" t="s">
         <v>6</v>
@@ -5459,8 +5457,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
-        <f t="shared" si="5"/>
-        <v>43221</v>
+        <v>42859</v>
       </c>
       <c r="B623" t="s">
         <v>6</v>
@@ -5468,8 +5465,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
-        <f t="shared" si="5"/>
-        <v>43222</v>
+        <v>43217</v>
       </c>
       <c r="B624" t="s">
         <v>6</v>
@@ -5477,7 +5473,8 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
-        <v>43581</v>
+        <f>A624+1</f>
+        <v>43218</v>
       </c>
       <c r="B625" t="s">
         <v>6</v>
@@ -5485,8 +5482,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
-        <f>A625+1</f>
-        <v>43582</v>
+        <v>43221</v>
       </c>
       <c r="B626" t="s">
         <v>6</v>
@@ -5494,8 +5490,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
-        <f t="shared" ref="A627:A631" si="6">A626+1</f>
-        <v>43583</v>
+        <v>43581</v>
       </c>
       <c r="B627" t="s">
         <v>6</v>
@@ -5503,8 +5498,8 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
-        <f t="shared" si="6"/>
-        <v>43584</v>
+        <f>A627+1</f>
+        <v>43582</v>
       </c>
       <c r="B628" t="s">
         <v>6</v>
@@ -5512,8 +5507,8 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
-        <f t="shared" si="6"/>
-        <v>43585</v>
+        <f t="shared" ref="A629:A632" si="5">A628+1</f>
+        <v>43583</v>
       </c>
       <c r="B629" t="s">
         <v>6</v>
@@ -5521,8 +5516,8 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
-        <f t="shared" si="6"/>
-        <v>43586</v>
+        <f t="shared" si="5"/>
+        <v>43584</v>
       </c>
       <c r="B630" t="s">
         <v>6</v>
@@ -5530,8 +5525,8 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
-        <f t="shared" si="6"/>
-        <v>43587</v>
+        <f t="shared" si="5"/>
+        <v>43585</v>
       </c>
       <c r="B631" t="s">
         <v>6</v>
@@ -5539,7 +5534,8 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
-        <v>45046</v>
+        <f t="shared" si="5"/>
+        <v>43586</v>
       </c>
       <c r="B632" t="s">
         <v>6</v>
@@ -5547,7 +5543,7 @@
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
-        <v>45047</v>
+        <v>45046</v>
       </c>
       <c r="B633" t="s">
         <v>6</v>
@@ -5555,15 +5551,15 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
-        <v>42180</v>
+        <v>45047</v>
       </c>
       <c r="B634" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
-        <v>42181</v>
+        <v>42180</v>
       </c>
       <c r="B635" t="s">
         <v>7</v>
@@ -5571,7 +5567,7 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
-        <v>42182</v>
+        <v>42181</v>
       </c>
       <c r="B636" t="s">
         <v>7</v>
@@ -5579,7 +5575,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
-        <v>42183</v>
+        <v>42182</v>
       </c>
       <c r="B637" t="s">
         <v>7</v>
@@ -5587,7 +5583,7 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
-        <v>42184</v>
+        <v>42183</v>
       </c>
       <c r="B638" t="s">
         <v>7</v>
@@ -5595,7 +5591,7 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
-        <v>42185</v>
+        <v>42184</v>
       </c>
       <c r="B639" t="s">
         <v>7</v>
@@ -5603,7 +5599,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
-        <v>42186</v>
+        <v>42185</v>
       </c>
       <c r="B640" t="s">
         <v>7</v>
@@ -5611,7 +5607,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
-        <v>42187</v>
+        <v>42186</v>
       </c>
       <c r="B641" t="s">
         <v>7</v>
@@ -5619,7 +5615,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
-        <v>42188</v>
+        <v>42187</v>
       </c>
       <c r="B642" t="s">
         <v>7</v>
@@ -5627,7 +5623,7 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
-        <v>42189</v>
+        <v>42188</v>
       </c>
       <c r="B643" t="s">
         <v>7</v>
@@ -5635,7 +5631,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
-        <v>42190</v>
+        <v>42189</v>
       </c>
       <c r="B644" t="s">
         <v>7</v>
@@ -5643,7 +5639,7 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
-        <v>42191</v>
+        <v>42190</v>
       </c>
       <c r="B645" t="s">
         <v>7</v>
@@ -5651,7 +5647,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
-        <v>42192</v>
+        <v>42191</v>
       </c>
       <c r="B646" t="s">
         <v>7</v>
@@ -5659,7 +5655,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
-        <v>42193</v>
+        <v>42192</v>
       </c>
       <c r="B647" t="s">
         <v>7</v>
@@ -5667,7 +5663,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
-        <v>42194</v>
+        <v>42193</v>
       </c>
       <c r="B648" t="s">
         <v>7</v>
@@ -5675,7 +5671,7 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
-        <v>42195</v>
+        <v>42194</v>
       </c>
       <c r="B649" t="s">
         <v>7</v>
@@ -5683,7 +5679,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
-        <v>42196</v>
+        <v>42195</v>
       </c>
       <c r="B650" t="s">
         <v>7</v>
@@ -5691,7 +5687,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
-        <v>42197</v>
+        <v>42196</v>
       </c>
       <c r="B651" t="s">
         <v>7</v>
@@ -5699,7 +5695,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
-        <v>42198</v>
+        <v>42197</v>
       </c>
       <c r="B652" t="s">
         <v>7</v>
@@ -5707,7 +5703,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
-        <v>42199</v>
+        <v>42198</v>
       </c>
       <c r="B653" t="s">
         <v>7</v>
@@ -5715,7 +5711,7 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
-        <v>42200</v>
+        <v>42199</v>
       </c>
       <c r="B654" t="s">
         <v>7</v>
@@ -5723,7 +5719,7 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
-        <v>42201</v>
+        <v>42200</v>
       </c>
       <c r="B655" t="s">
         <v>7</v>
@@ -5731,7 +5727,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
-        <v>42202</v>
+        <v>42201</v>
       </c>
       <c r="B656" t="s">
         <v>7</v>
@@ -5739,7 +5735,7 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
-        <v>42203</v>
+        <v>42202</v>
       </c>
       <c r="B657" t="s">
         <v>7</v>
@@ -5747,7 +5743,7 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
-        <v>42204</v>
+        <v>42203</v>
       </c>
       <c r="B658" t="s">
         <v>7</v>
@@ -5755,7 +5751,7 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
-        <v>42205</v>
+        <v>42204</v>
       </c>
       <c r="B659" t="s">
         <v>7</v>
@@ -5763,7 +5759,7 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
-        <v>42206</v>
+        <v>42205</v>
       </c>
       <c r="B660" t="s">
         <v>7</v>
@@ -5771,7 +5767,7 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
-        <v>42207</v>
+        <v>42206</v>
       </c>
       <c r="B661" t="s">
         <v>7</v>
@@ -5779,7 +5775,7 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
-        <v>42208</v>
+        <v>42207</v>
       </c>
       <c r="B662" t="s">
         <v>7</v>
@@ -5787,7 +5783,7 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
-        <v>42209</v>
+        <v>42208</v>
       </c>
       <c r="B663" t="s">
         <v>7</v>
@@ -5795,7 +5791,7 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
-        <v>42210</v>
+        <v>42209</v>
       </c>
       <c r="B664" t="s">
         <v>7</v>
@@ -5803,7 +5799,7 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
-        <v>42211</v>
+        <v>42210</v>
       </c>
       <c r="B665" t="s">
         <v>7</v>
@@ -5811,7 +5807,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
-        <v>42212</v>
+        <v>42211</v>
       </c>
       <c r="B666" t="s">
         <v>7</v>
@@ -5819,7 +5815,7 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
-        <v>42213</v>
+        <v>42212</v>
       </c>
       <c r="B667" t="s">
         <v>7</v>
@@ -5827,7 +5823,7 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
-        <v>42214</v>
+        <v>42213</v>
       </c>
       <c r="B668" t="s">
         <v>7</v>
@@ -5835,7 +5831,7 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
-        <v>42215</v>
+        <v>42214</v>
       </c>
       <c r="B669" t="s">
         <v>7</v>
@@ -5843,7 +5839,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
-        <v>42216</v>
+        <v>42215</v>
       </c>
       <c r="B670" t="s">
         <v>7</v>
@@ -5851,7 +5847,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
-        <v>42217</v>
+        <v>42216</v>
       </c>
       <c r="B671" t="s">
         <v>7</v>
@@ -5859,7 +5855,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
-        <v>42218</v>
+        <v>42217</v>
       </c>
       <c r="B672" t="s">
         <v>7</v>
@@ -5867,7 +5863,7 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
-        <v>42219</v>
+        <v>42218</v>
       </c>
       <c r="B673" t="s">
         <v>7</v>
@@ -5875,7 +5871,7 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
-        <v>42220</v>
+        <v>42219</v>
       </c>
       <c r="B674" t="s">
         <v>7</v>
@@ -5883,7 +5879,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
-        <v>42221</v>
+        <v>42220</v>
       </c>
       <c r="B675" t="s">
         <v>7</v>
@@ -5891,7 +5887,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
-        <v>42222</v>
+        <v>42221</v>
       </c>
       <c r="B676" t="s">
         <v>7</v>
@@ -5899,7 +5895,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
-        <v>42223</v>
+        <v>42222</v>
       </c>
       <c r="B677" t="s">
         <v>7</v>
@@ -5907,7 +5903,7 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
-        <v>42224</v>
+        <v>42223</v>
       </c>
       <c r="B678" t="s">
         <v>7</v>
@@ -5915,7 +5911,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
-        <v>42225</v>
+        <v>42224</v>
       </c>
       <c r="B679" t="s">
         <v>7</v>
@@ -5923,7 +5919,7 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
-        <v>42546</v>
+        <v>42225</v>
       </c>
       <c r="B680" t="s">
         <v>7</v>
@@ -5931,7 +5927,7 @@
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
-        <v>42547</v>
+        <v>42546</v>
       </c>
       <c r="B681" t="s">
         <v>7</v>
@@ -5939,7 +5935,7 @@
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
-        <v>42548</v>
+        <v>42547</v>
       </c>
       <c r="B682" t="s">
         <v>7</v>
@@ -5947,7 +5943,7 @@
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
-        <v>42549</v>
+        <v>42548</v>
       </c>
       <c r="B683" t="s">
         <v>7</v>
@@ -5955,7 +5951,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
-        <v>42550</v>
+        <v>42549</v>
       </c>
       <c r="B684" t="s">
         <v>7</v>
@@ -5963,7 +5959,7 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
-        <v>42551</v>
+        <v>42550</v>
       </c>
       <c r="B685" t="s">
         <v>7</v>
@@ -5971,7 +5967,7 @@
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
-        <v>42552</v>
+        <v>42551</v>
       </c>
       <c r="B686" t="s">
         <v>7</v>
@@ -5979,7 +5975,7 @@
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
-        <v>42553</v>
+        <v>42552</v>
       </c>
       <c r="B687" t="s">
         <v>7</v>
@@ -5987,7 +5983,7 @@
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
-        <v>42554</v>
+        <v>42553</v>
       </c>
       <c r="B688" t="s">
         <v>7</v>
@@ -5995,7 +5991,7 @@
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
-        <v>42555</v>
+        <v>42554</v>
       </c>
       <c r="B689" t="s">
         <v>7</v>
@@ -6003,7 +5999,7 @@
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
-        <v>42556</v>
+        <v>42555</v>
       </c>
       <c r="B690" t="s">
         <v>7</v>
@@ -6011,7 +6007,7 @@
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
-        <v>42557</v>
+        <v>42556</v>
       </c>
       <c r="B691" t="s">
         <v>7</v>
@@ -6019,7 +6015,7 @@
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
-        <v>42558</v>
+        <v>42557</v>
       </c>
       <c r="B692" t="s">
         <v>7</v>
@@ -6027,7 +6023,7 @@
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
-        <v>42559</v>
+        <v>42558</v>
       </c>
       <c r="B693" t="s">
         <v>7</v>
@@ -6035,7 +6031,7 @@
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
-        <v>42560</v>
+        <v>42559</v>
       </c>
       <c r="B694" t="s">
         <v>7</v>
@@ -6043,7 +6039,7 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
-        <v>42561</v>
+        <v>42560</v>
       </c>
       <c r="B695" t="s">
         <v>7</v>
@@ -6051,7 +6047,7 @@
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
-        <v>42562</v>
+        <v>42561</v>
       </c>
       <c r="B696" t="s">
         <v>7</v>
@@ -6059,7 +6055,7 @@
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
-        <v>42563</v>
+        <v>42562</v>
       </c>
       <c r="B697" t="s">
         <v>7</v>
@@ -6067,7 +6063,7 @@
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
-        <v>42564</v>
+        <v>42563</v>
       </c>
       <c r="B698" t="s">
         <v>7</v>
@@ -6075,7 +6071,7 @@
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
-        <v>42565</v>
+        <v>42564</v>
       </c>
       <c r="B699" t="s">
         <v>7</v>
@@ -6083,7 +6079,7 @@
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
-        <v>42566</v>
+        <v>42565</v>
       </c>
       <c r="B700" t="s">
         <v>7</v>
@@ -6091,7 +6087,7 @@
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
-        <v>42567</v>
+        <v>42566</v>
       </c>
       <c r="B701" t="s">
         <v>7</v>
@@ -6099,7 +6095,7 @@
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
-        <v>42568</v>
+        <v>42567</v>
       </c>
       <c r="B702" t="s">
         <v>7</v>
@@ -6107,7 +6103,7 @@
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
-        <v>42569</v>
+        <v>42568</v>
       </c>
       <c r="B703" t="s">
         <v>7</v>
@@ -6115,7 +6111,7 @@
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
-        <v>42570</v>
+        <v>42569</v>
       </c>
       <c r="B704" t="s">
         <v>7</v>
@@ -6123,7 +6119,7 @@
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="B705" t="s">
         <v>7</v>
@@ -6131,7 +6127,7 @@
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
-        <v>42572</v>
+        <v>42571</v>
       </c>
       <c r="B706" t="s">
         <v>7</v>
@@ -6139,7 +6135,7 @@
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
-        <v>42573</v>
+        <v>42572</v>
       </c>
       <c r="B707" t="s">
         <v>7</v>
@@ -6147,7 +6143,7 @@
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
-        <v>42574</v>
+        <v>42573</v>
       </c>
       <c r="B708" t="s">
         <v>7</v>
@@ -6155,7 +6151,7 @@
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
-        <v>42575</v>
+        <v>42574</v>
       </c>
       <c r="B709" t="s">
         <v>7</v>
@@ -6163,7 +6159,7 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
-        <v>42576</v>
+        <v>42575</v>
       </c>
       <c r="B710" t="s">
         <v>7</v>
@@ -6171,7 +6167,7 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
-        <v>42577</v>
+        <v>42576</v>
       </c>
       <c r="B711" t="s">
         <v>7</v>
@@ -6179,7 +6175,7 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
-        <v>42578</v>
+        <v>42577</v>
       </c>
       <c r="B712" t="s">
         <v>7</v>
@@ -6187,7 +6183,7 @@
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
-        <v>42579</v>
+        <v>42578</v>
       </c>
       <c r="B713" t="s">
         <v>7</v>
@@ -6195,7 +6191,7 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
-        <v>42580</v>
+        <v>42579</v>
       </c>
       <c r="B714" t="s">
         <v>7</v>
@@ -6203,7 +6199,7 @@
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
-        <v>42581</v>
+        <v>42580</v>
       </c>
       <c r="B715" t="s">
         <v>7</v>
@@ -6211,7 +6207,7 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="B716" t="s">
         <v>7</v>
@@ -6219,7 +6215,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
-        <v>42583</v>
+        <v>42582</v>
       </c>
       <c r="B717" t="s">
         <v>7</v>
@@ -6227,7 +6223,7 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
-        <v>42584</v>
+        <v>42583</v>
       </c>
       <c r="B718" t="s">
         <v>7</v>
@@ -6235,7 +6231,7 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
-        <v>42585</v>
+        <v>42584</v>
       </c>
       <c r="B719" t="s">
         <v>7</v>
@@ -6243,7 +6239,7 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
-        <v>42586</v>
+        <v>42585</v>
       </c>
       <c r="B720" t="s">
         <v>7</v>
@@ -6251,7 +6247,7 @@
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
-        <v>42587</v>
+        <v>42586</v>
       </c>
       <c r="B721" t="s">
         <v>7</v>
@@ -6259,7 +6255,7 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
-        <v>42588</v>
+        <v>42587</v>
       </c>
       <c r="B722" t="s">
         <v>7</v>
@@ -6267,7 +6263,7 @@
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
-        <v>42589</v>
+        <v>42588</v>
       </c>
       <c r="B723" t="s">
         <v>7</v>
@@ -6275,7 +6271,7 @@
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
-        <v>42590</v>
+        <v>42589</v>
       </c>
       <c r="B724" t="s">
         <v>7</v>
@@ -6283,7 +6279,7 @@
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
-        <v>42911</v>
+        <v>42590</v>
       </c>
       <c r="B725" t="s">
         <v>7</v>
@@ -6291,7 +6287,7 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
-        <v>42912</v>
+        <v>42911</v>
       </c>
       <c r="B726" t="s">
         <v>7</v>
@@ -6299,7 +6295,7 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
-        <v>42913</v>
+        <v>42912</v>
       </c>
       <c r="B727" t="s">
         <v>7</v>
@@ -6307,7 +6303,7 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
-        <v>42914</v>
+        <v>42913</v>
       </c>
       <c r="B728" t="s">
         <v>7</v>
@@ -6315,7 +6311,7 @@
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
-        <v>42915</v>
+        <v>42914</v>
       </c>
       <c r="B729" t="s">
         <v>7</v>
@@ -6323,7 +6319,7 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
-        <v>42916</v>
+        <v>42915</v>
       </c>
       <c r="B730" t="s">
         <v>7</v>
@@ -6331,7 +6327,7 @@
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
-        <v>42917</v>
+        <v>42916</v>
       </c>
       <c r="B731" t="s">
         <v>7</v>
@@ -6339,7 +6335,7 @@
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
-        <v>42918</v>
+        <v>42917</v>
       </c>
       <c r="B732" t="s">
         <v>7</v>
@@ -6347,7 +6343,7 @@
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
-        <v>42919</v>
+        <v>42918</v>
       </c>
       <c r="B733" t="s">
         <v>7</v>
@@ -6355,7 +6351,7 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
-        <v>42920</v>
+        <v>42919</v>
       </c>
       <c r="B734" t="s">
         <v>7</v>
@@ -6363,7 +6359,7 @@
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
-        <v>42921</v>
+        <v>42920</v>
       </c>
       <c r="B735" t="s">
         <v>7</v>
@@ -6371,7 +6367,7 @@
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
-        <v>42922</v>
+        <v>42921</v>
       </c>
       <c r="B736" t="s">
         <v>7</v>
@@ -6379,7 +6375,7 @@
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
-        <v>42923</v>
+        <v>42922</v>
       </c>
       <c r="B737" t="s">
         <v>7</v>
@@ -6387,7 +6383,7 @@
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
-        <v>42924</v>
+        <v>42923</v>
       </c>
       <c r="B738" t="s">
         <v>7</v>
@@ -6395,7 +6391,7 @@
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
-        <v>42925</v>
+        <v>42924</v>
       </c>
       <c r="B739" t="s">
         <v>7</v>
@@ -6403,7 +6399,7 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
-        <v>42926</v>
+        <v>42925</v>
       </c>
       <c r="B740" t="s">
         <v>7</v>
@@ -6411,7 +6407,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
-        <v>42927</v>
+        <v>42926</v>
       </c>
       <c r="B741" t="s">
         <v>7</v>
@@ -6419,7 +6415,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
-        <v>42928</v>
+        <v>42927</v>
       </c>
       <c r="B742" t="s">
         <v>7</v>
@@ -6427,7 +6423,7 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
-        <v>42929</v>
+        <v>42928</v>
       </c>
       <c r="B743" t="s">
         <v>7</v>
@@ -6435,7 +6431,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
-        <v>42930</v>
+        <v>42929</v>
       </c>
       <c r="B744" t="s">
         <v>7</v>
@@ -6443,7 +6439,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
-        <v>42931</v>
+        <v>42930</v>
       </c>
       <c r="B745" t="s">
         <v>7</v>
@@ -6451,7 +6447,7 @@
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
-        <v>42932</v>
+        <v>42931</v>
       </c>
       <c r="B746" t="s">
         <v>7</v>
@@ -6459,7 +6455,7 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
-        <v>42933</v>
+        <v>42932</v>
       </c>
       <c r="B747" t="s">
         <v>7</v>
@@ -6467,7 +6463,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
-        <v>42934</v>
+        <v>42933</v>
       </c>
       <c r="B748" t="s">
         <v>7</v>
@@ -6475,7 +6471,7 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
-        <v>42935</v>
+        <v>42934</v>
       </c>
       <c r="B749" t="s">
         <v>7</v>
@@ -6483,7 +6479,7 @@
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
-        <v>42936</v>
+        <v>42935</v>
       </c>
       <c r="B750" t="s">
         <v>7</v>
@@ -6491,7 +6487,7 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
-        <v>42937</v>
+        <v>42936</v>
       </c>
       <c r="B751" t="s">
         <v>7</v>
@@ -6499,7 +6495,7 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
-        <v>42938</v>
+        <v>42937</v>
       </c>
       <c r="B752" t="s">
         <v>7</v>
@@ -6507,7 +6503,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
-        <v>42939</v>
+        <v>42938</v>
       </c>
       <c r="B753" t="s">
         <v>7</v>
@@ -6515,7 +6511,7 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
-        <v>42940</v>
+        <v>42939</v>
       </c>
       <c r="B754" t="s">
         <v>7</v>
@@ -6523,7 +6519,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
-        <v>42941</v>
+        <v>42940</v>
       </c>
       <c r="B755" t="s">
         <v>7</v>
@@ -6531,7 +6527,7 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
-        <v>42942</v>
+        <v>42941</v>
       </c>
       <c r="B756" t="s">
         <v>7</v>
@@ -6539,7 +6535,7 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
-        <v>42943</v>
+        <v>42942</v>
       </c>
       <c r="B757" t="s">
         <v>7</v>
@@ -6547,7 +6543,7 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
-        <v>42944</v>
+        <v>42943</v>
       </c>
       <c r="B758" t="s">
         <v>7</v>
@@ -6555,7 +6551,7 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
-        <v>42945</v>
+        <v>42944</v>
       </c>
       <c r="B759" t="s">
         <v>7</v>
@@ -6563,7 +6559,7 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
-        <v>42946</v>
+        <v>42945</v>
       </c>
       <c r="B760" t="s">
         <v>7</v>
@@ -6571,7 +6567,7 @@
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
-        <v>43276</v>
+        <v>42946</v>
       </c>
       <c r="B761" t="s">
         <v>7</v>
@@ -6579,7 +6575,7 @@
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
-        <v>43277</v>
+        <v>43276</v>
       </c>
       <c r="B762" t="s">
         <v>7</v>
@@ -6587,7 +6583,7 @@
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
-        <v>43278</v>
+        <v>43277</v>
       </c>
       <c r="B763" t="s">
         <v>7</v>
@@ -6595,7 +6591,7 @@
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
-        <v>43279</v>
+        <v>43278</v>
       </c>
       <c r="B764" t="s">
         <v>7</v>
@@ -6603,7 +6599,7 @@
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
-        <v>43280</v>
+        <v>43279</v>
       </c>
       <c r="B765" t="s">
         <v>7</v>
@@ -6611,7 +6607,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
-        <v>43281</v>
+        <v>43280</v>
       </c>
       <c r="B766" t="s">
         <v>7</v>
@@ -6619,7 +6615,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
-        <v>43282</v>
+        <v>43281</v>
       </c>
       <c r="B767" t="s">
         <v>7</v>
@@ -6627,7 +6623,7 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
-        <v>43283</v>
+        <v>43282</v>
       </c>
       <c r="B768" t="s">
         <v>7</v>
@@ -6635,7 +6631,7 @@
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
-        <v>43284</v>
+        <v>43283</v>
       </c>
       <c r="B769" t="s">
         <v>7</v>
@@ -6643,7 +6639,7 @@
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
-        <v>43285</v>
+        <v>43284</v>
       </c>
       <c r="B770" t="s">
         <v>7</v>
@@ -6651,7 +6647,7 @@
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
-        <v>43286</v>
+        <v>43285</v>
       </c>
       <c r="B771" t="s">
         <v>7</v>
@@ -6659,7 +6655,7 @@
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
-        <v>43287</v>
+        <v>43286</v>
       </c>
       <c r="B772" t="s">
         <v>7</v>
@@ -6667,7 +6663,7 @@
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
-        <v>43288</v>
+        <v>43287</v>
       </c>
       <c r="B773" t="s">
         <v>7</v>
@@ -6675,7 +6671,7 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
-        <v>43289</v>
+        <v>43288</v>
       </c>
       <c r="B774" t="s">
         <v>7</v>
@@ -6683,7 +6679,7 @@
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
-        <v>43290</v>
+        <v>43289</v>
       </c>
       <c r="B775" t="s">
         <v>7</v>
@@ -6691,7 +6687,7 @@
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
-        <v>43291</v>
+        <v>43290</v>
       </c>
       <c r="B776" t="s">
         <v>7</v>
@@ -6699,7 +6695,7 @@
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="B777" t="s">
         <v>7</v>
@@ -6707,7 +6703,7 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
-        <v>43293</v>
+        <v>43292</v>
       </c>
       <c r="B778" t="s">
         <v>7</v>
@@ -6715,7 +6711,7 @@
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
-        <v>43294</v>
+        <v>43293</v>
       </c>
       <c r="B779" t="s">
         <v>7</v>
@@ -6723,7 +6719,7 @@
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
-        <v>43295</v>
+        <v>43294</v>
       </c>
       <c r="B780" t="s">
         <v>7</v>
@@ -6731,7 +6727,7 @@
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
-        <v>43296</v>
+        <v>43295</v>
       </c>
       <c r="B781" t="s">
         <v>7</v>
@@ -6739,7 +6735,7 @@
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
-        <v>43297</v>
+        <v>43296</v>
       </c>
       <c r="B782" t="s">
         <v>7</v>
@@ -6747,7 +6743,7 @@
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
-        <v>43298</v>
+        <v>43297</v>
       </c>
       <c r="B783" t="s">
         <v>7</v>
@@ -6755,7 +6751,7 @@
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
-        <v>43299</v>
+        <v>43298</v>
       </c>
       <c r="B784" t="s">
         <v>7</v>
@@ -6763,7 +6759,7 @@
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
-        <v>43300</v>
+        <v>43299</v>
       </c>
       <c r="B785" t="s">
         <v>7</v>
@@ -6771,7 +6767,7 @@
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
-        <v>43301</v>
+        <v>43300</v>
       </c>
       <c r="B786" t="s">
         <v>7</v>
@@ -6779,7 +6775,7 @@
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
-        <v>43302</v>
+        <v>43301</v>
       </c>
       <c r="B787" t="s">
         <v>7</v>
@@ -6787,7 +6783,7 @@
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
-        <v>43303</v>
+        <v>43302</v>
       </c>
       <c r="B788" t="s">
         <v>7</v>
@@ -6795,7 +6791,7 @@
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
-        <v>43304</v>
+        <v>43303</v>
       </c>
       <c r="B789" t="s">
         <v>7</v>
@@ -6803,7 +6799,7 @@
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
-        <v>43305</v>
+        <v>43304</v>
       </c>
       <c r="B790" t="s">
         <v>7</v>
@@ -6811,7 +6807,7 @@
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
-        <v>43306</v>
+        <v>43305</v>
       </c>
       <c r="B791" t="s">
         <v>7</v>
@@ -6819,7 +6815,7 @@
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
-        <v>43307</v>
+        <v>43306</v>
       </c>
       <c r="B792" t="s">
         <v>7</v>
@@ -6827,7 +6823,7 @@
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
-        <v>43308</v>
+        <v>43307</v>
       </c>
       <c r="B793" t="s">
         <v>7</v>
@@ -6835,7 +6831,7 @@
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
-        <v>43309</v>
+        <v>43308</v>
       </c>
       <c r="B794" t="s">
         <v>7</v>
@@ -6843,7 +6839,7 @@
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
-        <v>43310</v>
+        <v>43309</v>
       </c>
       <c r="B795" t="s">
         <v>7</v>
@@ -6851,7 +6847,7 @@
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
-        <v>43311</v>
+        <v>43310</v>
       </c>
       <c r="B796" t="s">
         <v>7</v>
@@ -6859,7 +6855,7 @@
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
-        <v>43312</v>
+        <v>43311</v>
       </c>
       <c r="B797" t="s">
         <v>7</v>
@@ -6867,7 +6863,7 @@
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
-        <v>43641</v>
+        <v>43312</v>
       </c>
       <c r="B798" t="s">
         <v>7</v>
@@ -6875,7 +6871,7 @@
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
-        <v>43642</v>
+        <v>43641</v>
       </c>
       <c r="B799" t="s">
         <v>7</v>
@@ -6883,7 +6879,7 @@
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
-        <v>43643</v>
+        <v>43642</v>
       </c>
       <c r="B800" t="s">
         <v>7</v>
@@ -6891,7 +6887,7 @@
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
-        <v>43644</v>
+        <v>43643</v>
       </c>
       <c r="B801" t="s">
         <v>7</v>
@@ -6899,7 +6895,7 @@
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
-        <v>43645</v>
+        <v>43644</v>
       </c>
       <c r="B802" t="s">
         <v>7</v>
@@ -6907,7 +6903,7 @@
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
-        <v>43646</v>
+        <v>43645</v>
       </c>
       <c r="B803" t="s">
         <v>7</v>
@@ -6915,7 +6911,7 @@
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
-        <v>43647</v>
+        <v>43646</v>
       </c>
       <c r="B804" t="s">
         <v>7</v>
@@ -6923,7 +6919,7 @@
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
-        <v>43648</v>
+        <v>43647</v>
       </c>
       <c r="B805" t="s">
         <v>7</v>
@@ -6931,7 +6927,7 @@
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
-        <v>43649</v>
+        <v>43648</v>
       </c>
       <c r="B806" t="s">
         <v>7</v>
@@ -6939,7 +6935,7 @@
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
-        <v>43650</v>
+        <v>43649</v>
       </c>
       <c r="B807" t="s">
         <v>7</v>
@@ -6947,7 +6943,7 @@
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
-        <v>43651</v>
+        <v>43650</v>
       </c>
       <c r="B808" t="s">
         <v>7</v>
@@ -6955,7 +6951,7 @@
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
-        <v>43652</v>
+        <v>43651</v>
       </c>
       <c r="B809" t="s">
         <v>7</v>
@@ -6963,7 +6959,7 @@
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
-        <v>43653</v>
+        <v>43652</v>
       </c>
       <c r="B810" t="s">
         <v>7</v>
@@ -6971,7 +6967,7 @@
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
-        <v>43654</v>
+        <v>43653</v>
       </c>
       <c r="B811" t="s">
         <v>7</v>
@@ -6979,7 +6975,7 @@
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
-        <v>43655</v>
+        <v>43654</v>
       </c>
       <c r="B812" t="s">
         <v>7</v>
@@ -6987,7 +6983,7 @@
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
-        <v>43656</v>
+        <v>43655</v>
       </c>
       <c r="B813" t="s">
         <v>7</v>
@@ -6995,7 +6991,7 @@
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
-        <v>43657</v>
+        <v>43656</v>
       </c>
       <c r="B814" t="s">
         <v>7</v>
@@ -7003,7 +6999,7 @@
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
-        <v>43658</v>
+        <v>43657</v>
       </c>
       <c r="B815" t="s">
         <v>7</v>
@@ -7011,7 +7007,7 @@
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
-        <v>43659</v>
+        <v>43658</v>
       </c>
       <c r="B816" t="s">
         <v>7</v>
@@ -7019,7 +7015,7 @@
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
-        <v>43660</v>
+        <v>43659</v>
       </c>
       <c r="B817" t="s">
         <v>7</v>
@@ -7027,7 +7023,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
-        <v>43661</v>
+        <v>43660</v>
       </c>
       <c r="B818" t="s">
         <v>7</v>
@@ -7035,7 +7031,7 @@
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
-        <v>43662</v>
+        <v>43661</v>
       </c>
       <c r="B819" t="s">
         <v>7</v>
@@ -7043,7 +7039,7 @@
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
-        <v>43663</v>
+        <v>43662</v>
       </c>
       <c r="B820" t="s">
         <v>7</v>
@@ -7051,7 +7047,7 @@
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821" s="1">
-        <v>43664</v>
+        <v>43663</v>
       </c>
       <c r="B821" t="s">
         <v>7</v>
@@ -7059,7 +7055,7 @@
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
-        <v>43665</v>
+        <v>43664</v>
       </c>
       <c r="B822" t="s">
         <v>7</v>
@@ -7067,7 +7063,7 @@
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
-        <v>43666</v>
+        <v>43665</v>
       </c>
       <c r="B823" t="s">
         <v>7</v>
@@ -7075,7 +7071,7 @@
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A824" s="1">
-        <v>43667</v>
+        <v>43666</v>
       </c>
       <c r="B824" t="s">
         <v>7</v>
@@ -7083,7 +7079,7 @@
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825" s="1">
-        <v>43668</v>
+        <v>43667</v>
       </c>
       <c r="B825" t="s">
         <v>7</v>
@@ -7091,7 +7087,7 @@
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826" s="1">
-        <v>43669</v>
+        <v>43668</v>
       </c>
       <c r="B826" t="s">
         <v>7</v>
@@ -7099,7 +7095,7 @@
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827" s="1">
-        <v>43670</v>
+        <v>43669</v>
       </c>
       <c r="B827" t="s">
         <v>7</v>
@@ -7107,7 +7103,7 @@
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828" s="1">
-        <v>43671</v>
+        <v>43670</v>
       </c>
       <c r="B828" t="s">
         <v>7</v>
@@ -7115,7 +7111,7 @@
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829" s="1">
-        <v>43672</v>
+        <v>43671</v>
       </c>
       <c r="B829" t="s">
         <v>7</v>
@@ -7123,7 +7119,7 @@
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830" s="1">
-        <v>43673</v>
+        <v>43672</v>
       </c>
       <c r="B830" t="s">
         <v>7</v>
@@ -7131,7 +7127,7 @@
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831" s="1">
-        <v>43674</v>
+        <v>43673</v>
       </c>
       <c r="B831" t="s">
         <v>7</v>
@@ -7139,7 +7135,7 @@
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A832" s="1">
-        <v>43675</v>
+        <v>43674</v>
       </c>
       <c r="B832" t="s">
         <v>7</v>
@@ -7147,7 +7143,7 @@
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A833" s="1">
-        <v>43676</v>
+        <v>43675</v>
       </c>
       <c r="B833" t="s">
         <v>7</v>
@@ -7155,7 +7151,7 @@
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834" s="1">
-        <v>44737</v>
+        <v>43676</v>
       </c>
       <c r="B834" t="s">
         <v>7</v>
@@ -7163,7 +7159,7 @@
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A835" s="1">
-        <v>44738</v>
+        <v>44737</v>
       </c>
       <c r="B835" t="s">
         <v>7</v>
@@ -7171,7 +7167,7 @@
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A836" s="1">
-        <v>44739</v>
+        <v>44738</v>
       </c>
       <c r="B836" t="s">
         <v>7</v>
@@ -7179,7 +7175,7 @@
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A837" s="1">
-        <v>44740</v>
+        <v>44739</v>
       </c>
       <c r="B837" t="s">
         <v>7</v>
@@ -7187,7 +7183,7 @@
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A838" s="1">
-        <v>44741</v>
+        <v>44740</v>
       </c>
       <c r="B838" t="s">
         <v>7</v>
@@ -7195,7 +7191,7 @@
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A839" s="1">
-        <v>44742</v>
+        <v>44741</v>
       </c>
       <c r="B839" t="s">
         <v>7</v>
@@ -7203,7 +7199,7 @@
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840" s="1">
-        <v>44743</v>
+        <v>44742</v>
       </c>
       <c r="B840" t="s">
         <v>7</v>
@@ -7211,7 +7207,7 @@
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A841" s="1">
-        <v>44744</v>
+        <v>44743</v>
       </c>
       <c r="B841" t="s">
         <v>7</v>
@@ -7219,7 +7215,7 @@
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A842" s="1">
-        <v>44745</v>
+        <v>44744</v>
       </c>
       <c r="B842" t="s">
         <v>7</v>
@@ -7227,7 +7223,7 @@
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843" s="1">
-        <v>44746</v>
+        <v>44745</v>
       </c>
       <c r="B843" t="s">
         <v>7</v>
@@ -7235,7 +7231,7 @@
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844" s="1">
-        <v>44747</v>
+        <v>44746</v>
       </c>
       <c r="B844" t="s">
         <v>7</v>
@@ -7243,7 +7239,7 @@
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845" s="1">
-        <v>44748</v>
+        <v>44747</v>
       </c>
       <c r="B845" t="s">
         <v>7</v>
@@ -7251,7 +7247,7 @@
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846" s="1">
-        <v>44749</v>
+        <v>44748</v>
       </c>
       <c r="B846" t="s">
         <v>7</v>
@@ -7259,7 +7255,7 @@
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847" s="1">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="B847" t="s">
         <v>7</v>
@@ -7267,7 +7263,7 @@
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848" s="1">
-        <v>44751</v>
+        <v>44750</v>
       </c>
       <c r="B848" t="s">
         <v>7</v>
@@ -7275,7 +7271,7 @@
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849" s="1">
-        <v>44752</v>
+        <v>44751</v>
       </c>
       <c r="B849" t="s">
         <v>7</v>
@@ -7283,7 +7279,7 @@
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850" s="1">
-        <v>44753</v>
+        <v>44752</v>
       </c>
       <c r="B850" t="s">
         <v>7</v>
@@ -7291,7 +7287,7 @@
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851" s="1">
-        <v>44754</v>
+        <v>44753</v>
       </c>
       <c r="B851" t="s">
         <v>7</v>
@@ -7299,7 +7295,7 @@
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852" s="1">
-        <v>44755</v>
+        <v>44754</v>
       </c>
       <c r="B852" t="s">
         <v>7</v>
@@ -7307,7 +7303,7 @@
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A853" s="1">
-        <v>44756</v>
+        <v>44755</v>
       </c>
       <c r="B853" t="s">
         <v>7</v>
@@ -7315,7 +7311,7 @@
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A854" s="1">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="B854" t="s">
         <v>7</v>
@@ -7323,7 +7319,7 @@
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855" s="1">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="B855" t="s">
         <v>7</v>
@@ -7331,7 +7327,7 @@
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856" s="1">
-        <v>44759</v>
+        <v>44758</v>
       </c>
       <c r="B856" t="s">
         <v>7</v>
@@ -7339,7 +7335,7 @@
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857" s="1">
-        <v>44760</v>
+        <v>44759</v>
       </c>
       <c r="B857" t="s">
         <v>7</v>
@@ -7347,7 +7343,7 @@
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858" s="1">
-        <v>44761</v>
+        <v>44760</v>
       </c>
       <c r="B858" t="s">
         <v>7</v>
@@ -7355,7 +7351,7 @@
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859" s="1">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B859" t="s">
         <v>7</v>
@@ -7363,7 +7359,7 @@
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860" s="1">
-        <v>44763</v>
+        <v>44762</v>
       </c>
       <c r="B860" t="s">
         <v>7</v>
@@ -7371,7 +7367,7 @@
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861" s="1">
-        <v>44764</v>
+        <v>44763</v>
       </c>
       <c r="B861" t="s">
         <v>7</v>
@@ -7379,7 +7375,7 @@
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862" s="1">
-        <v>44765</v>
+        <v>44764</v>
       </c>
       <c r="B862" t="s">
         <v>7</v>
@@ -7387,7 +7383,7 @@
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863" s="1">
-        <v>44766</v>
+        <v>44765</v>
       </c>
       <c r="B863" t="s">
         <v>7</v>
@@ -7395,7 +7391,7 @@
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864" s="1">
-        <v>44767</v>
+        <v>44766</v>
       </c>
       <c r="B864" t="s">
         <v>7</v>
@@ -7403,7 +7399,7 @@
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865" s="1">
-        <v>44768</v>
+        <v>44767</v>
       </c>
       <c r="B865" t="s">
         <v>7</v>
@@ -7411,7 +7407,7 @@
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866" s="1">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="B866" t="s">
         <v>7</v>
@@ -7419,7 +7415,7 @@
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867" s="1">
-        <v>44770</v>
+        <v>44769</v>
       </c>
       <c r="B867" t="s">
         <v>7</v>
@@ -7427,7 +7423,7 @@
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A868" s="1">
-        <v>44771</v>
+        <v>44770</v>
       </c>
       <c r="B868" t="s">
         <v>7</v>
@@ -7435,7 +7431,7 @@
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869" s="1">
-        <v>44772</v>
+        <v>44771</v>
       </c>
       <c r="B869" t="s">
         <v>7</v>
@@ -7443,7 +7439,7 @@
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870" s="1">
-        <v>44773</v>
+        <v>44772</v>
       </c>
       <c r="B870" t="s">
         <v>7</v>
@@ -7451,16 +7447,15 @@
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871" s="1">
-        <v>44677</v>
+        <v>44773</v>
       </c>
       <c r="B871" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A872" s="1">
-        <f>A871+1</f>
-        <v>44678</v>
+        <v>44677</v>
       </c>
       <c r="B872" t="s">
         <v>6</v>
@@ -7468,8 +7463,8 @@
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873" s="1">
-        <f t="shared" ref="A873:A877" si="7">A872+1</f>
-        <v>44679</v>
+        <f>A872+1</f>
+        <v>44678</v>
       </c>
       <c r="B873" t="s">
         <v>6</v>
@@ -7477,8 +7472,8 @@
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A874" s="1">
-        <f t="shared" si="7"/>
-        <v>44680</v>
+        <f t="shared" ref="A874:A876" si="6">A873+1</f>
+        <v>44679</v>
       </c>
       <c r="B874" t="s">
         <v>6</v>
@@ -7486,8 +7481,8 @@
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A875" s="1">
-        <f t="shared" si="7"/>
-        <v>44681</v>
+        <f t="shared" si="6"/>
+        <v>44680</v>
       </c>
       <c r="B875" t="s">
         <v>6</v>
@@ -7495,8 +7490,8 @@
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876" s="1">
-        <f t="shared" si="7"/>
-        <v>44682</v>
+        <f t="shared" si="6"/>
+        <v>44681</v>
       </c>
       <c r="B876" t="s">
         <v>6</v>
@@ -7504,7 +7499,6 @@
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877" s="1">
-        <f t="shared" si="7"/>
         <v>44683</v>
       </c>
       <c r="B877" t="s">
@@ -7530,7 +7524,7 @@
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880" s="1">
-        <f t="shared" ref="A880:A881" si="8">A879+1</f>
+        <f t="shared" ref="A880:A882" si="7">A879+1</f>
         <v>44314</v>
       </c>
       <c r="B880" t="s">
@@ -7539,7 +7533,7 @@
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44315</v>
       </c>
       <c r="B881" t="s">
@@ -7548,23 +7542,24 @@
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882" s="1">
-        <v>44007</v>
+        <f t="shared" si="7"/>
+        <v>44316</v>
       </c>
       <c r="B882" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883" s="1">
-        <v>44008</v>
+        <v>44318</v>
       </c>
       <c r="B883" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884" s="1">
-        <v>44009</v>
+        <v>44007</v>
       </c>
       <c r="B884" t="s">
         <v>7</v>
@@ -7572,7 +7567,7 @@
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885" s="1">
-        <v>44010</v>
+        <v>44008</v>
       </c>
       <c r="B885" t="s">
         <v>7</v>
@@ -7580,7 +7575,7 @@
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886" s="1">
-        <v>44011</v>
+        <v>44009</v>
       </c>
       <c r="B886" t="s">
         <v>7</v>
@@ -7588,7 +7583,7 @@
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887" s="1">
-        <v>44012</v>
+        <v>44010</v>
       </c>
       <c r="B887" t="s">
         <v>7</v>
@@ -7596,7 +7591,7 @@
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888" s="1">
-        <v>44013</v>
+        <v>44011</v>
       </c>
       <c r="B888" t="s">
         <v>7</v>
@@ -7604,7 +7599,7 @@
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889" s="1">
-        <v>44014</v>
+        <v>44012</v>
       </c>
       <c r="B889" t="s">
         <v>7</v>
@@ -7612,7 +7607,7 @@
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890" s="1">
-        <v>44015</v>
+        <v>44013</v>
       </c>
       <c r="B890" t="s">
         <v>7</v>
@@ -7620,7 +7615,7 @@
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891" s="1">
-        <v>44016</v>
+        <v>44014</v>
       </c>
       <c r="B891" t="s">
         <v>7</v>
@@ -7628,7 +7623,7 @@
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892" s="1">
-        <v>44017</v>
+        <v>44015</v>
       </c>
       <c r="B892" t="s">
         <v>7</v>
@@ -7636,7 +7631,7 @@
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" s="1">
-        <v>44018</v>
+        <v>44016</v>
       </c>
       <c r="B893" t="s">
         <v>7</v>
@@ -7644,7 +7639,7 @@
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894" s="1">
-        <v>44019</v>
+        <v>44017</v>
       </c>
       <c r="B894" t="s">
         <v>7</v>
@@ -7652,7 +7647,7 @@
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" s="1">
-        <v>44020</v>
+        <v>44018</v>
       </c>
       <c r="B895" t="s">
         <v>7</v>
@@ -7660,7 +7655,7 @@
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896" s="1">
-        <v>44021</v>
+        <v>44019</v>
       </c>
       <c r="B896" t="s">
         <v>7</v>
@@ -7668,7 +7663,7 @@
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897" s="1">
-        <v>44022</v>
+        <v>44020</v>
       </c>
       <c r="B897" t="s">
         <v>7</v>
@@ -7676,7 +7671,7 @@
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898" s="1">
-        <v>44023</v>
+        <v>44021</v>
       </c>
       <c r="B898" t="s">
         <v>7</v>
@@ -7684,7 +7679,7 @@
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899" s="1">
-        <v>44024</v>
+        <v>44022</v>
       </c>
       <c r="B899" t="s">
         <v>7</v>
@@ -7692,7 +7687,7 @@
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900" s="1">
-        <v>44025</v>
+        <v>44023</v>
       </c>
       <c r="B900" t="s">
         <v>7</v>
@@ -7700,7 +7695,7 @@
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901" s="1">
-        <v>44026</v>
+        <v>44024</v>
       </c>
       <c r="B901" t="s">
         <v>7</v>
@@ -7708,7 +7703,7 @@
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902" s="1">
-        <v>44027</v>
+        <v>44025</v>
       </c>
       <c r="B902" t="s">
         <v>7</v>
@@ -7716,7 +7711,7 @@
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903" s="1">
-        <v>44028</v>
+        <v>44026</v>
       </c>
       <c r="B903" t="s">
         <v>7</v>
@@ -7724,7 +7719,7 @@
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904" s="1">
-        <v>44029</v>
+        <v>44027</v>
       </c>
       <c r="B904" t="s">
         <v>7</v>
@@ -7732,7 +7727,7 @@
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905" s="1">
-        <v>44030</v>
+        <v>44028</v>
       </c>
       <c r="B905" t="s">
         <v>7</v>
@@ -7740,7 +7735,7 @@
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906" s="1">
-        <v>44031</v>
+        <v>44029</v>
       </c>
       <c r="B906" t="s">
         <v>7</v>
@@ -7748,7 +7743,7 @@
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A907" s="1">
-        <v>44032</v>
+        <v>44030</v>
       </c>
       <c r="B907" t="s">
         <v>7</v>
@@ -7756,7 +7751,7 @@
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" s="1">
-        <v>44033</v>
+        <v>44031</v>
       </c>
       <c r="B908" t="s">
         <v>7</v>
@@ -7764,7 +7759,7 @@
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909" s="1">
-        <v>44034</v>
+        <v>44032</v>
       </c>
       <c r="B909" t="s">
         <v>7</v>
@@ -7772,7 +7767,7 @@
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910" s="1">
-        <v>44035</v>
+        <v>44033</v>
       </c>
       <c r="B910" t="s">
         <v>7</v>
@@ -7780,7 +7775,7 @@
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911" s="1">
-        <v>44036</v>
+        <v>44034</v>
       </c>
       <c r="B911" t="s">
         <v>7</v>
@@ -7788,7 +7783,7 @@
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912" s="1">
-        <v>44037</v>
+        <v>44035</v>
       </c>
       <c r="B912" t="s">
         <v>7</v>
@@ -7796,7 +7791,7 @@
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913" s="1">
-        <v>44038</v>
+        <v>44036</v>
       </c>
       <c r="B913" t="s">
         <v>7</v>
@@ -7804,7 +7799,7 @@
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914" s="1">
-        <v>44039</v>
+        <v>44037</v>
       </c>
       <c r="B914" t="s">
         <v>7</v>
@@ -7812,23 +7807,23 @@
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915" s="1">
-        <v>43848</v>
+        <v>44038</v>
       </c>
       <c r="B915" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916" s="1">
-        <v>43849</v>
+        <v>44039</v>
       </c>
       <c r="B916" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917" s="1">
-        <v>43850</v>
+        <v>43848</v>
       </c>
       <c r="B917" t="s">
         <v>5</v>
@@ -7836,7 +7831,7 @@
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A918" s="1">
-        <v>43851</v>
+        <v>43849</v>
       </c>
       <c r="B918" t="s">
         <v>5</v>
@@ -7844,7 +7839,7 @@
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919" s="1">
-        <v>43852</v>
+        <v>43850</v>
       </c>
       <c r="B919" t="s">
         <v>5</v>
@@ -7852,7 +7847,7 @@
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920" s="1">
-        <v>43853</v>
+        <v>43851</v>
       </c>
       <c r="B920" t="s">
         <v>5</v>
@@ -7860,7 +7855,7 @@
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921" s="1">
-        <v>43855</v>
+        <v>43852</v>
       </c>
       <c r="B921" t="s">
         <v>5</v>
@@ -7868,7 +7863,7 @@
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922" s="1">
-        <v>43856</v>
+        <v>43853</v>
       </c>
       <c r="B922" t="s">
         <v>5</v>
@@ -7876,7 +7871,7 @@
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923" s="1">
-        <v>43857</v>
+        <v>43855</v>
       </c>
       <c r="B923" t="s">
         <v>5</v>
@@ -7884,7 +7879,7 @@
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924" s="1">
-        <v>43858</v>
+        <v>43856</v>
       </c>
       <c r="B924" t="s">
         <v>5</v>
@@ -7892,7 +7887,7 @@
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925" s="1">
-        <v>43859</v>
+        <v>43857</v>
       </c>
       <c r="B925" t="s">
         <v>5</v>
@@ -7900,7 +7895,7 @@
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926" s="1">
-        <v>43860</v>
+        <v>43858</v>
       </c>
       <c r="B926" t="s">
         <v>5</v>
@@ -7908,7 +7903,7 @@
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927" s="1">
-        <v>43861</v>
+        <v>43859</v>
       </c>
       <c r="B927" t="s">
         <v>5</v>
@@ -7916,7 +7911,7 @@
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928" s="1">
-        <v>43862</v>
+        <v>43860</v>
       </c>
       <c r="B928" t="s">
         <v>5</v>
@@ -7924,7 +7919,7 @@
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929" s="1">
-        <v>43863</v>
+        <v>43861</v>
       </c>
       <c r="B929" t="s">
         <v>5</v>
@@ -7932,31 +7927,31 @@
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B930" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A931" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B931" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A932" s="1">
         <v>43864</v>
       </c>
-      <c r="B930" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A931" s="2">
-        <v>44024</v>
-      </c>
-      <c r="B931" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A932" s="2">
-        <v>44029</v>
-      </c>
       <c r="B932" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933" s="2">
-        <v>44030</v>
+        <v>44024</v>
       </c>
       <c r="B933" t="s">
         <v>9</v>
@@ -7964,7 +7959,7 @@
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934" s="2">
-        <v>44031</v>
+        <v>44029</v>
       </c>
       <c r="B934" t="s">
         <v>9</v>
@@ -7972,7 +7967,7 @@
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935" s="2">
-        <v>44032</v>
+        <v>44030</v>
       </c>
       <c r="B935" t="s">
         <v>9</v>
@@ -7980,7 +7975,7 @@
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936" s="2">
-        <v>44036</v>
+        <v>44031</v>
       </c>
       <c r="B936" t="s">
         <v>9</v>
@@ -7988,7 +7983,7 @@
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937" s="2">
-        <v>44037</v>
+        <v>44032</v>
       </c>
       <c r="B937" t="s">
         <v>9</v>
@@ -7996,7 +7991,7 @@
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938" s="2">
-        <v>44038</v>
+        <v>44036</v>
       </c>
       <c r="B938" t="s">
         <v>9</v>
@@ -8004,7 +7999,7 @@
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939" s="2">
-        <v>44315</v>
+        <v>44037</v>
       </c>
       <c r="B939" t="s">
         <v>9</v>
@@ -8012,7 +8007,7 @@
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940" s="2">
-        <v>44717</v>
+        <v>44038</v>
       </c>
       <c r="B940" t="s">
         <v>9</v>
@@ -8020,7 +8015,7 @@
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941" s="2">
-        <v>44718</v>
+        <v>44315</v>
       </c>
       <c r="B941" t="s">
         <v>9</v>
@@ -8028,7 +8023,7 @@
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942" s="2">
-        <v>44719</v>
+        <v>44714</v>
       </c>
       <c r="B942" t="s">
         <v>9</v>
@@ -8036,7 +8031,7 @@
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943" s="2">
-        <v>44720</v>
+        <v>44715</v>
       </c>
       <c r="B943" t="s">
         <v>9</v>
@@ -8044,7 +8039,7 @@
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944" s="2">
-        <v>44721</v>
+        <v>44716</v>
       </c>
       <c r="B944" t="s">
         <v>9</v>
@@ -8052,7 +8047,7 @@
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945" s="2">
-        <v>44722</v>
+        <v>44717</v>
       </c>
       <c r="B945" t="s">
         <v>9</v>
@@ -8060,7 +8055,7 @@
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A946" s="2">
-        <v>44724</v>
+        <v>44718</v>
       </c>
       <c r="B946" t="s">
         <v>9</v>
@@ -8068,7 +8063,7 @@
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947" s="2">
-        <v>44726</v>
+        <v>44719</v>
       </c>
       <c r="B947" t="s">
         <v>9</v>
@@ -8076,7 +8071,7 @@
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948" s="2">
-        <v>44727</v>
+        <v>44720</v>
       </c>
       <c r="B948" t="s">
         <v>9</v>
@@ -8084,7 +8079,7 @@
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949" s="2">
-        <v>44728</v>
+        <v>44721</v>
       </c>
       <c r="B949" t="s">
         <v>9</v>
@@ -8092,7 +8087,7 @@
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950" s="2">
-        <v>44729</v>
+        <v>44722</v>
       </c>
       <c r="B950" t="s">
         <v>9</v>
@@ -8100,7 +8095,7 @@
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951" s="2">
-        <v>44730</v>
+        <v>44723</v>
       </c>
       <c r="B951" t="s">
         <v>9</v>
@@ -8108,7 +8103,7 @@
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952" s="2">
-        <v>44731</v>
+        <v>44724</v>
       </c>
       <c r="B952" t="s">
         <v>9</v>
@@ -8116,7 +8111,7 @@
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953" s="2">
-        <v>44732</v>
+        <v>44725</v>
       </c>
       <c r="B953" t="s">
         <v>9</v>
@@ -8124,7 +8119,7 @@
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A954" s="2">
-        <v>44733</v>
+        <v>44726</v>
       </c>
       <c r="B954" t="s">
         <v>9</v>
@@ -8132,7 +8127,7 @@
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955" s="2">
-        <v>44734</v>
+        <v>44727</v>
       </c>
       <c r="B955" t="s">
         <v>9</v>
@@ -8140,7 +8135,7 @@
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956" s="2">
-        <v>44735</v>
+        <v>44728</v>
       </c>
       <c r="B956" t="s">
         <v>9</v>
@@ -8148,7 +8143,7 @@
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957" s="2">
-        <v>44736</v>
+        <v>44729</v>
       </c>
       <c r="B957" t="s">
         <v>9</v>
@@ -8156,7 +8151,7 @@
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958" s="2">
-        <v>44737</v>
+        <v>44730</v>
       </c>
       <c r="B958" t="s">
         <v>9</v>
@@ -8164,7 +8159,7 @@
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959" s="2">
-        <v>44738</v>
+        <v>44731</v>
       </c>
       <c r="B959" t="s">
         <v>9</v>
@@ -8172,7 +8167,7 @@
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960" s="2">
-        <v>44739</v>
+        <v>44732</v>
       </c>
       <c r="B960" t="s">
         <v>9</v>
@@ -8180,7 +8175,7 @@
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961" s="2">
-        <v>44740</v>
+        <v>44733</v>
       </c>
       <c r="B961" t="s">
         <v>9</v>
@@ -8188,7 +8183,7 @@
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962" s="2">
-        <v>44741</v>
+        <v>44734</v>
       </c>
       <c r="B962" t="s">
         <v>9</v>
@@ -8196,7 +8191,7 @@
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" s="2">
-        <v>44742</v>
+        <v>44735</v>
       </c>
       <c r="B963" t="s">
         <v>9</v>
@@ -8204,7 +8199,7 @@
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964" s="2">
-        <v>44743</v>
+        <v>44736</v>
       </c>
       <c r="B964" t="s">
         <v>9</v>
@@ -8212,7 +8207,7 @@
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965" s="2">
-        <v>44744</v>
+        <v>44737</v>
       </c>
       <c r="B965" t="s">
         <v>9</v>
@@ -8220,7 +8215,7 @@
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966" s="2">
-        <v>44745</v>
+        <v>44738</v>
       </c>
       <c r="B966" t="s">
         <v>9</v>
@@ -8228,7 +8223,7 @@
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967" s="2">
-        <v>44746</v>
+        <v>44739</v>
       </c>
       <c r="B967" t="s">
         <v>9</v>
@@ -8236,7 +8231,7 @@
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" s="2">
-        <v>44747</v>
+        <v>44740</v>
       </c>
       <c r="B968" t="s">
         <v>9</v>
@@ -8244,7 +8239,7 @@
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" s="2">
-        <v>44748</v>
+        <v>44741</v>
       </c>
       <c r="B969" t="s">
         <v>9</v>
@@ -8252,7 +8247,7 @@
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" s="2">
-        <v>44749</v>
+        <v>44742</v>
       </c>
       <c r="B970" t="s">
         <v>9</v>
@@ -8260,7 +8255,7 @@
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" s="2">
-        <v>44750</v>
+        <v>44743</v>
       </c>
       <c r="B971" t="s">
         <v>9</v>
@@ -8268,7 +8263,7 @@
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" s="2">
-        <v>44751</v>
+        <v>44744</v>
       </c>
       <c r="B972" t="s">
         <v>9</v>
@@ -8276,7 +8271,7 @@
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" s="2">
-        <v>44752</v>
+        <v>44745</v>
       </c>
       <c r="B973" t="s">
         <v>9</v>
@@ -8284,7 +8279,7 @@
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" s="2">
-        <v>44753</v>
+        <v>44746</v>
       </c>
       <c r="B974" t="s">
         <v>9</v>
@@ -8292,7 +8287,7 @@
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" s="2">
-        <v>44754</v>
+        <v>44747</v>
       </c>
       <c r="B975" t="s">
         <v>9</v>
@@ -8300,7 +8295,7 @@
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" s="2">
-        <v>44755</v>
+        <v>44748</v>
       </c>
       <c r="B976" t="s">
         <v>9</v>
@@ -8308,7 +8303,7 @@
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" s="2">
-        <v>44756</v>
+        <v>44749</v>
       </c>
       <c r="B977" t="s">
         <v>9</v>
@@ -8316,7 +8311,7 @@
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" s="2">
-        <v>44757</v>
+        <v>44750</v>
       </c>
       <c r="B978" t="s">
         <v>9</v>
@@ -8324,7 +8319,7 @@
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" s="2">
-        <v>44758</v>
+        <v>44751</v>
       </c>
       <c r="B979" t="s">
         <v>9</v>
@@ -8332,7 +8327,7 @@
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" s="2">
-        <v>44759</v>
+        <v>44752</v>
       </c>
       <c r="B980" t="s">
         <v>9</v>
@@ -8340,7 +8335,7 @@
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A981" s="2">
-        <v>44760</v>
+        <v>44753</v>
       </c>
       <c r="B981" t="s">
         <v>9</v>
@@ -8348,7 +8343,7 @@
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" s="2">
-        <v>44761</v>
+        <v>44754</v>
       </c>
       <c r="B982" t="s">
         <v>9</v>
@@ -8356,7 +8351,7 @@
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" s="2">
-        <v>44762</v>
+        <v>44755</v>
       </c>
       <c r="B983" t="s">
         <v>9</v>
@@ -8364,7 +8359,7 @@
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" s="2">
-        <v>44763</v>
+        <v>44756</v>
       </c>
       <c r="B984" t="s">
         <v>9</v>
@@ -8372,7 +8367,7 @@
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" s="2">
-        <v>44764</v>
+        <v>44757</v>
       </c>
       <c r="B985" t="s">
         <v>9</v>
@@ -8380,7 +8375,7 @@
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" s="2">
-        <v>44765</v>
+        <v>44758</v>
       </c>
       <c r="B986" t="s">
         <v>9</v>
@@ -8388,7 +8383,7 @@
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" s="2">
-        <v>44766</v>
+        <v>44759</v>
       </c>
       <c r="B987" t="s">
         <v>9</v>
@@ -8396,7 +8391,7 @@
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" s="2">
-        <v>44767</v>
+        <v>44760</v>
       </c>
       <c r="B988" t="s">
         <v>9</v>
@@ -8404,7 +8399,7 @@
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" s="2">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="B989" t="s">
         <v>9</v>
@@ -8412,7 +8407,7 @@
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990" s="2">
-        <v>44773</v>
+        <v>44762</v>
       </c>
       <c r="B990" t="s">
         <v>9</v>
@@ -8420,70 +8415,182 @@
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" s="2">
-        <v>42005</v>
+        <v>44763</v>
       </c>
       <c r="B991" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" s="2">
-        <v>42370</v>
+        <v>44764</v>
       </c>
       <c r="B992" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" s="2">
-        <v>42736</v>
+        <v>44765</v>
       </c>
       <c r="B993" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" s="2">
-        <v>43101</v>
+        <v>44766</v>
       </c>
       <c r="B994" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995" s="2">
-        <v>43466</v>
+        <v>44767</v>
       </c>
       <c r="B995" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" s="2">
-        <v>43831</v>
+        <v>44768</v>
       </c>
       <c r="B996" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" s="2">
-        <v>44197</v>
+        <v>44769</v>
       </c>
       <c r="B997" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B998" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A999" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B999" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1000" s="2">
+        <v>44772</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1001" s="2">
+        <v>44773</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1002" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1003" s="2">
+        <v>42037</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1004" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1005" s="2">
+        <v>42371</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1006" s="2">
+        <v>42736</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1007" s="2">
+        <v>43100</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1008" s="2">
+        <v>43468</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1009" s="2">
+        <v>43831</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1010" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1011" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1012" s="2">
         <v>44927</v>
       </c>
-      <c r="B998" t="s">
+      <c r="B1012" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B998" xr:uid="{BA395004-8FF7-4713-8DD9-0513D6A645C2}"/>
+  <autoFilter ref="A1:B1012" xr:uid="{BA395004-8FF7-4713-8DD9-0513D6A645C2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
